--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -1,38 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\EU Entity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519D1D8B-1E69-4ACA-8C30-738CFF86B6B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B32865-FB35-4ED6-B213-BB2940550D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="5505" windowWidth="18660" windowHeight="9165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Fields" sheetId="13" r:id="rId1"/>
-    <sheet name="ORIG03_Customer" sheetId="1" r:id="rId2"/>
-    <sheet name="CRED01_DealSetup" sheetId="2" r:id="rId3"/>
-    <sheet name="CRED02_FacilitySetup" sheetId="3" r:id="rId4"/>
-    <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId5"/>
-    <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId6"/>
-    <sheet name="SERV01_LoanDrawdown" sheetId="6" r:id="rId7"/>
-    <sheet name="AMCH06_PricingChangeTransaction" sheetId="7" r:id="rId8"/>
-    <sheet name="DLCH01_DealChangeTransaction" sheetId="8" r:id="rId9"/>
-    <sheet name="SERV18_Payments" sheetId="9" r:id="rId10"/>
-    <sheet name="SERV21_InterestPayments" sheetId="10" r:id="rId11"/>
-    <sheet name="SERV29_PaymentFees" sheetId="11" r:id="rId12"/>
-    <sheet name="AMCH04_DealChangeTransaction" sheetId="12" r:id="rId13"/>
+    <sheet name="PTY001_QuickPartyOnboarding" sheetId="14" r:id="rId2"/>
+    <sheet name="ORIG03_Customer" sheetId="1" r:id="rId3"/>
+    <sheet name="CRED01_DealSetup" sheetId="2" r:id="rId4"/>
+    <sheet name="CRED02_FacilitySetup" sheetId="3" r:id="rId5"/>
+    <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId6"/>
+    <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId7"/>
+    <sheet name="SERV01_LoanDrawdown" sheetId="6" r:id="rId8"/>
+    <sheet name="AMCH06_PricingChangeTransaction" sheetId="7" r:id="rId9"/>
+    <sheet name="DLCH01_DealChangeTransaction" sheetId="8" r:id="rId10"/>
+    <sheet name="SERV18_Payments" sheetId="9" r:id="rId11"/>
+    <sheet name="SERV21_InterestPayments" sheetId="10" r:id="rId12"/>
+    <sheet name="SERV29_PaymentFees" sheetId="11" r:id="rId13"/>
+    <sheet name="AMCH04_DealChangeTransaction" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="794">
   <si>
     <t>rowid</t>
   </si>
@@ -2242,14 +2245,198 @@
   </si>
   <si>
     <t>XJ100015</t>
+  </si>
+  <si>
+    <t>Enterprise_Prefix</t>
+  </si>
+  <si>
+    <t>Party_ID</t>
+  </si>
+  <si>
+    <t>Short_Name_Prefix</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Branch_Code</t>
+  </si>
+  <si>
+    <t>Party_Type</t>
+  </si>
+  <si>
+    <t>Party_Sub_Type</t>
+  </si>
+  <si>
+    <t>Party_Category</t>
+  </si>
+  <si>
+    <t>Registered_Number</t>
+  </si>
+  <si>
+    <t>Country_of_Tax_Domicile</t>
+  </si>
+  <si>
+    <t>Date_Formed</t>
+  </si>
+  <si>
+    <t>Country_of_Registration</t>
+  </si>
+  <si>
+    <t>Business_Country</t>
+  </si>
+  <si>
+    <t>Industry_Sector</t>
+  </si>
+  <si>
+    <t>Business_Activity</t>
+  </si>
+  <si>
+    <t>Is_Main_Activity</t>
+  </si>
+  <si>
+    <t>Is_Primary_Activity</t>
+  </si>
+  <si>
+    <t>GST_Number</t>
+  </si>
+  <si>
+    <t>Address_Type</t>
+  </si>
+  <si>
+    <t>Country_Region</t>
+  </si>
+  <si>
+    <t>Post_Code</t>
+  </si>
+  <si>
+    <t>Address_Line_1</t>
+  </si>
+  <si>
+    <t>Address_Line_2</t>
+  </si>
+  <si>
+    <t>Address_Line_3</t>
+  </si>
+  <si>
+    <t>Address_Line_4</t>
+  </si>
+  <si>
+    <t>Town_City</t>
+  </si>
+  <si>
+    <t>State_Province</t>
+  </si>
+  <si>
+    <t>Document_Collection_Status</t>
+  </si>
+  <si>
+    <t>Selected_Module</t>
+  </si>
+  <si>
+    <t>UserZone</t>
+  </si>
+  <si>
+    <t>UserBranch</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Assigned_Branch</t>
+  </si>
+  <si>
+    <t>Enterprise_Name</t>
+  </si>
+  <si>
+    <t>Short_Name</t>
+  </si>
+  <si>
+    <t>PTY001_QuickPartyOnboarding</t>
+  </si>
+  <si>
+    <t>Sanseera Electronics Ltd</t>
+  </si>
+  <si>
+    <t>SE Ltd</t>
+  </si>
+  <si>
+    <t>Local Private</t>
+  </si>
+  <si>
+    <t>00000852</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Formal Partnership, Joint Venture</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>2015-04-06</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Higher Education</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>10075843210</t>
+  </si>
+  <si>
+    <t>Legal Address</t>
+  </si>
+  <si>
+    <t>Alnwick 3</t>
+  </si>
+  <si>
+    <t>Northumberland 4</t>
+  </si>
+  <si>
+    <t>Alnwick</t>
+  </si>
+  <si>
+    <t>Northumberland</t>
+  </si>
+  <si>
+    <t>Documents not collected</t>
+  </si>
+  <si>
+    <t>Quick Party Onboarding</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>CBA - Amsterdam</t>
+  </si>
+  <si>
+    <t>Columns available</t>
+  </si>
+  <si>
+    <t>Manual Input</t>
+  </si>
+  <si>
+    <t>Auto generated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2478,7 +2665,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2586,6 +2773,19 @@
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2908,11 +3108,11 @@
   </sheetPr>
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,6 +3458,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3605,7 +3871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3945,7 +4211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4253,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4322,6 +4588,492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BD8F72-876D-4A7E-9AEB-CA591F6F91C2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:EG29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="28" style="1" customWidth="1"/>
+    <col min="40" max="40" width="19" style="1" customWidth="1"/>
+    <col min="41" max="41" width="36.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="36.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.5703125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="22" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21" style="1" customWidth="1"/>
+    <col min="46" max="46" width="36.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="20" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10" style="1" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="12.5703125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="16.7109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="18.28515625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="19.28515625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="18.140625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="19.140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="27.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="22.28515625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="23.28515625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="24.28515625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="29.28515625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="21" style="1" customWidth="1"/>
+    <col min="64" max="64" width="25.5703125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="21.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="18.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="20.42578125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5703125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.5703125" style="1" customWidth="1"/>
+    <col min="70" max="70" width="33.5703125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="33" style="1" customWidth="1"/>
+    <col min="72" max="72" width="39.140625" style="1" customWidth="1"/>
+    <col min="73" max="73" width="41" style="1" customWidth="1"/>
+    <col min="74" max="75" width="38.5703125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="38.85546875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="34.140625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="38.42578125" style="1" customWidth="1"/>
+    <col min="79" max="79" width="32.42578125" style="1" customWidth="1"/>
+    <col min="80" max="80" width="40" style="1" customWidth="1"/>
+    <col min="81" max="81" width="41" style="1" customWidth="1"/>
+    <col min="82" max="82" width="38" style="1" customWidth="1"/>
+    <col min="83" max="83" width="18.140625" style="1" customWidth="1"/>
+    <col min="84" max="84" width="31.140625" style="1" customWidth="1"/>
+    <col min="85" max="86" width="39.28515625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="33.42578125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="46.42578125" style="1" customWidth="1"/>
+    <col min="89" max="89" width="43.85546875" style="1" customWidth="1"/>
+    <col min="90" max="90" width="48.85546875" style="1" customWidth="1"/>
+    <col min="91" max="91" width="34.85546875" style="1" customWidth="1"/>
+    <col min="92" max="92" width="12" style="1" customWidth="1"/>
+    <col min="93" max="93" width="23.42578125" style="1" customWidth="1"/>
+    <col min="94" max="94" width="18.85546875" style="1" customWidth="1"/>
+    <col min="95" max="95" width="20" style="1" customWidth="1"/>
+    <col min="96" max="96" width="25" style="1" customWidth="1"/>
+    <col min="97" max="97" width="20.42578125" style="1" customWidth="1"/>
+    <col min="98" max="98" width="25.85546875" style="1" customWidth="1"/>
+    <col min="99" max="99" width="20.42578125" style="1" customWidth="1"/>
+    <col min="100" max="100" width="25" style="1" customWidth="1"/>
+    <col min="101" max="101" width="20.42578125" style="1" customWidth="1"/>
+    <col min="102" max="102" width="20.85546875" style="1" customWidth="1"/>
+    <col min="103" max="104" width="21.140625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="28.7109375" style="1" customWidth="1"/>
+    <col min="106" max="106" width="23.5703125" style="1" customWidth="1"/>
+    <col min="107" max="107" width="19" style="1" customWidth="1"/>
+    <col min="108" max="108" width="16.7109375" style="1" customWidth="1"/>
+    <col min="109" max="109" width="21.140625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="12.140625" style="1" customWidth="1"/>
+    <col min="111" max="111" width="16" style="1" customWidth="1"/>
+    <col min="112" max="112" width="20.42578125" style="1" customWidth="1"/>
+    <col min="113" max="113" width="19" style="1" customWidth="1"/>
+    <col min="114" max="114" width="19.140625" style="1" customWidth="1"/>
+    <col min="115" max="115" width="19" style="1" customWidth="1"/>
+    <col min="116" max="116" width="14.85546875" style="1" customWidth="1"/>
+    <col min="117" max="117" width="19.28515625" style="1" customWidth="1"/>
+    <col min="118" max="118" width="19.7109375" style="1" customWidth="1"/>
+    <col min="119" max="119" width="19.42578125" style="1" customWidth="1"/>
+    <col min="120" max="120" width="31.140625" style="1" customWidth="1"/>
+    <col min="121" max="121" width="29" style="1" customWidth="1"/>
+    <col min="122" max="122" width="28.140625" style="1" customWidth="1"/>
+    <col min="123" max="123" width="23.42578125" style="1" customWidth="1"/>
+    <col min="124" max="124" width="23" style="1" customWidth="1"/>
+    <col min="125" max="125" width="32.7109375" style="1" customWidth="1"/>
+    <col min="126" max="126" width="31.28515625" style="1" customWidth="1"/>
+    <col min="127" max="127" width="28.7109375" style="1" customWidth="1"/>
+    <col min="128" max="128" width="26" style="1" customWidth="1"/>
+    <col min="129" max="129" width="26.42578125" style="1" customWidth="1"/>
+    <col min="130" max="130" width="22.85546875" style="1" customWidth="1"/>
+    <col min="131" max="131" width="20.28515625" style="1" customWidth="1"/>
+    <col min="132" max="132" width="35.7109375" style="1" customWidth="1"/>
+    <col min="133" max="133" width="34.28515625" style="1" customWidth="1"/>
+    <col min="134" max="134" width="31.7109375" style="1" customWidth="1"/>
+    <col min="135" max="135" width="22" style="1" customWidth="1"/>
+    <col min="136" max="136" width="35.42578125" style="1" customWidth="1"/>
+    <col min="137" max="137" width="28" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:137" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>736</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>738</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>739</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>740</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>741</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>742</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>743</v>
+      </c>
+      <c r="N1" s="75" t="s">
+        <v>744</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>745</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>747</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>748</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>749</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>750</v>
+      </c>
+      <c r="U1" s="75" t="s">
+        <v>751</v>
+      </c>
+      <c r="V1" s="75" t="s">
+        <v>752</v>
+      </c>
+      <c r="W1" s="75" t="s">
+        <v>753</v>
+      </c>
+      <c r="X1" s="75" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y1" s="75" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z1" s="75" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB1" s="75" t="s">
+        <v>758</v>
+      </c>
+      <c r="AC1" s="75" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD1" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE1" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="AF1" s="75" t="s">
+        <v>762</v>
+      </c>
+      <c r="AG1" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="AH1" s="76" t="s">
+        <v>764</v>
+      </c>
+      <c r="AI1" s="76" t="s">
+        <v>765</v>
+      </c>
+      <c r="AJ1" s="76" t="s">
+        <v>766</v>
+      </c>
+      <c r="AK1" s="76" t="s">
+        <v>767</v>
+      </c>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
+      <c r="BS1" s="75"/>
+      <c r="BT1" s="75"/>
+      <c r="BU1" s="75"/>
+      <c r="BV1" s="75"/>
+      <c r="BW1" s="75"/>
+      <c r="BX1" s="75"/>
+      <c r="BY1" s="75"/>
+      <c r="BZ1" s="75"/>
+      <c r="CA1" s="75"/>
+      <c r="CB1" s="75"/>
+      <c r="CC1" s="75"/>
+      <c r="CD1" s="75"/>
+      <c r="CE1" s="75"/>
+      <c r="CF1" s="75"/>
+    </row>
+    <row r="2" spans="1:137" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1014001</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>777</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="W2" s="80">
+        <v>2000</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB2" s="81" t="s">
+        <v>785</v>
+      </c>
+      <c r="AC2" s="81" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="75" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="76" t="s">
+        <v>793</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5691,7 +6443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6252,7 +7004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6491,7 +7243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6664,7 +7416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6885,7 +7637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7221,7 +7973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7533,70 +8285,4 @@
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>568</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6478A01-C022-45EB-8427-731B48179535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623CB40-95B1-4118-BA61-A33FC16A5B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Fields" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="770">
   <si>
     <t>rowid</t>
   </si>
@@ -1284,9 +1284,6 @@
     <t>Amsterdam, Netherlands</t>
   </si>
   <si>
-    <t>DH</t>
-  </si>
-  <si>
     <t>IMT</t>
   </si>
   <si>
@@ -1311,9 +1308,6 @@
     <t>10,000,000.00</t>
   </si>
   <si>
-    <t>Amsterdam, Netherlands|Sydney, Australia|Copenhagen, Denmark|London, England|New York, United States</t>
-  </si>
-  <si>
     <t>Debt Service Coverage Ratio (DSCR)</t>
   </si>
   <si>
@@ -1344,12 +1338,6 @@
     <t>Effective date of change</t>
   </si>
   <si>
-    <t>HIJARA</t>
-  </si>
-  <si>
-    <t>Hijara,  Darlon</t>
-  </si>
-  <si>
     <t>Commonwealth Bank of Australia - Amsterdam</t>
   </si>
   <si>
@@ -2359,6 +2347,15 @@
   </si>
   <si>
     <t>Auto generated</t>
+  </si>
+  <si>
+    <t>CAMPOMANES</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Campomanes, Makee</t>
   </si>
 </sst>
 </file>
@@ -3441,13 +3438,13 @@
         <v>321</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3455,16 +3452,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -3605,79 +3602,79 @@
         <v>323</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>328</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>82</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="V1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="Z1" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>143</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AX1" s="36"/>
       <c r="AY1" s="36"/>
@@ -3746,19 +3743,19 @@
         <v>408</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>230</v>
@@ -3767,55 +3764,55 @@
         <v>220</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>285</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AB2" s="32">
         <v>100</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -3893,31 +3890,31 @@
         <v>321</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>323</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>648</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>651</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>652</v>
       </c>
       <c r="M1" s="40" t="s">
         <v>90</v>
@@ -3926,64 +3923,64 @@
         <v>328</v>
       </c>
       <c r="O1" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>651</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="S1" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="T1" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="U1" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="V1" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="W1" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="X1" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="Y1" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="Z1" s="25" t="s">
         <v>660</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>663</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>664</v>
       </c>
       <c r="AA1" s="39" t="s">
         <v>143</v>
       </c>
       <c r="AB1" s="39" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AC1" s="26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AD1" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="AG1" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AH1" s="26" t="s">
         <v>541</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="AG1" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>545</v>
       </c>
       <c r="AI1" s="25" t="s">
         <v>92</v>
@@ -3992,34 +3989,34 @@
         <v>82</v>
       </c>
       <c r="AK1" s="26" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AL1" s="26" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AM1" s="25" t="s">
         <v>82</v>
       </c>
       <c r="AN1" s="25" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AO1" s="43" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="25" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="AQ1" s="25" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AR1" s="25" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AS1" s="25" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AT1" s="25" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4033,37 +4030,37 @@
         <v>406</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>43</v>
@@ -4072,22 +4069,22 @@
         <v>43</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="X2" s="31" t="s">
         <v>318</v>
@@ -4098,61 +4095,61 @@
         <v>318</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AG2" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AH2" s="15" t="s">
         <v>245</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>285</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>230</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AQ2" s="32" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AR2" s="32" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AS2" s="32">
         <v>100</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -4226,49 +4223,49 @@
         <v>79</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>689</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>328</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="R1" s="34" t="s">
         <v>323</v>
@@ -4277,61 +4274,61 @@
         <v>321</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="U1" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="AA1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="AB1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>698</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>143</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4342,16 +4339,16 @@
         <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>248</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>406</v>
@@ -4360,25 +4357,25 @@
         <v>220</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>230</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>285</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
@@ -4390,58 +4387,58 @@
         <v>406</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Z2" s="1">
         <v>69.040000000000006</v>
       </c>
       <c r="AB2" s="45" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AC2" s="45" t="s">
         <v>292</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AH2" s="31" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>269</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
@@ -4505,13 +4502,13 @@
         <v>321</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4519,16 +4516,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -4697,109 +4694,109 @@
         <v>79</v>
       </c>
       <c r="C1" s="81" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>709</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" s="81" t="s">
         <v>711</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="H1" s="81" t="s">
         <v>712</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="I1" s="81" t="s">
         <v>713</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="J1" s="81" t="s">
         <v>714</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="K1" s="81" t="s">
         <v>715</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="L1" s="81" t="s">
         <v>716</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="M1" s="81" t="s">
         <v>717</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="N1" s="81" t="s">
         <v>718</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="O1" s="81" t="s">
         <v>719</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="P1" s="81" t="s">
         <v>720</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="Q1" s="81" t="s">
         <v>721</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="R1" s="81" t="s">
         <v>722</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="S1" s="81" t="s">
         <v>723</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="T1" s="81" t="s">
         <v>724</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="U1" s="81" t="s">
         <v>725</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="V1" s="81" t="s">
         <v>726</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="W1" s="81" t="s">
         <v>727</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="X1" s="81" t="s">
         <v>728</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="Y1" s="81" t="s">
         <v>729</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="Z1" s="81" t="s">
         <v>730</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="AA1" s="81" t="s">
         <v>731</v>
       </c>
-      <c r="X1" s="81" t="s">
+      <c r="AB1" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="Y1" s="81" t="s">
+      <c r="AC1" s="81" t="s">
         <v>733</v>
       </c>
-      <c r="Z1" s="81" t="s">
+      <c r="AD1" s="81" t="s">
         <v>734</v>
       </c>
-      <c r="AA1" s="81" t="s">
+      <c r="AE1" s="81" t="s">
         <v>735</v>
       </c>
-      <c r="AB1" s="81" t="s">
+      <c r="AF1" s="81" t="s">
         <v>736</v>
       </c>
-      <c r="AC1" s="81" t="s">
+      <c r="AG1" s="81" t="s">
         <v>737</v>
-      </c>
-      <c r="AD1" s="81" t="s">
-        <v>738</v>
-      </c>
-      <c r="AE1" s="81" t="s">
-        <v>739</v>
-      </c>
-      <c r="AF1" s="81" t="s">
-        <v>740</v>
-      </c>
-      <c r="AG1" s="81" t="s">
-        <v>741</v>
       </c>
       <c r="AH1" s="82" t="s">
         <v>214</v>
       </c>
       <c r="AI1" s="82" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AJ1" s="82" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AK1" s="82" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AL1" s="81"/>
       <c r="AM1" s="81"/>
@@ -4854,65 +4851,65 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>745</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>749</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="K2" s="1">
         <v>1014001</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="M2" s="85" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>317</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>759</v>
-      </c>
       <c r="V2" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="W2" s="86">
         <v>2000</v>
@@ -4924,28 +4921,28 @@
         <v>237</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB2" s="87" t="s">
+        <v>758</v>
+      </c>
+      <c r="AC2" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AE2" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="AB2" s="87" t="s">
+      <c r="AF2" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="AC2" s="87" t="s">
+      <c r="AG2" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="AH2"/>
       <c r="AI2"/>
@@ -5007,17 +5004,17 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="81" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="82" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +5032,7 @@
   <dimension ref="A1:EK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6025,8 +6022,8 @@
   <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <pane xSplit="2" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CQ7" sqref="CQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,7 +6052,7 @@
     <col min="25" max="25" width="25.140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="18.5703125" style="1" customWidth="1"/>
     <col min="27" max="27" width="18.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="94" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="32" style="1" customWidth="1"/>
     <col min="30" max="30" width="14.28515625" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
@@ -6416,59 +6413,59 @@
         <v>410</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>411</v>
+        <v>252</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>412</v>
+        <v>768</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>220</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>411</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y2" s="47"/>
       <c r="Z2" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>246</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="47" t="s">
         <v>422</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE2" s="47" t="s">
-        <v>424</v>
       </c>
       <c r="AF2" s="47"/>
       <c r="AG2" s="47"/>
@@ -6477,37 +6474,37 @@
       <c r="AJ2" s="47"/>
       <c r="AK2" s="47"/>
       <c r="AL2" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>233</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="AS2" s="1">
         <v>2</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AW2" s="1">
         <v>2</v>
@@ -6516,13 +6513,13 @@
         <v>313</v>
       </c>
       <c r="AZ2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BB2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BD2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BE2" s="47"/>
       <c r="BF2" s="47"/>
@@ -6541,34 +6538,34 @@
       <c r="BU2" s="49"/>
       <c r="BV2" s="49"/>
       <c r="BW2" s="1" t="s">
-        <v>432</v>
+        <v>767</v>
       </c>
       <c r="BX2" s="14" t="s">
-        <v>433</v>
+        <v>769</v>
       </c>
       <c r="BY2" s="14" t="s">
         <v>220</v>
       </c>
       <c r="BZ2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="CA2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="CC2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="CD2" s="14" t="s">
-        <v>412</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="47"/>
       <c r="CF2" s="47"/>
       <c r="CG2" s="47"/>
       <c r="CH2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="CI2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6586,41 +6583,41 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="21.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.7109375" style="1" customWidth="1"/>
     <col min="23" max="23" width="25.5703125" style="1" customWidth="1"/>
     <col min="24" max="25" width="18" style="1" customWidth="1"/>
     <col min="26" max="26" width="19.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="32.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="24.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="25.5703125" style="1" customWidth="1"/>
     <col min="32" max="32" width="24.42578125" style="1" customWidth="1"/>
@@ -6634,10 +6631,10 @@
         <v>79</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>321</v>
@@ -6646,82 +6643,82 @@
         <v>323</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>324</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="Q1" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="R1" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="S1" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="T1" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>458</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -6732,10 +6729,10 @@
         <v>217</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E2" t="s">
         <v>406</v>
@@ -6747,52 +6744,52 @@
         <v>233</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q2" s="47"/>
       <c r="R2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="U2" s="47"/>
       <c r="V2" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>233</v>
       </c>
       <c r="Y2" s="47"/>
       <c r="Z2" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>411</v>
@@ -6801,13 +6798,13 @@
         <v>410</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>432</v>
+        <v>767</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6864,58 +6861,58 @@
         <v>323</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6929,58 +6926,58 @@
         <v>408</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="K2" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="L2" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="M2" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="N2" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="S2" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -7047,52 +7044,52 @@
         <v>323</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>399</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="R1" s="50" t="s">
-        <v>514</v>
-      </c>
-      <c r="S1" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>373</v>
@@ -7130,7 +7127,7 @@
         <v>408</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>411</v>
@@ -7139,7 +7136,7 @@
         <v>246</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -7148,52 +7145,52 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>292</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z2" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -7283,91 +7280,91 @@
         <v>321</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>323</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>328</v>
       </c>
       <c r="K1" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="R1" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="S1" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="V1" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="W1" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="X1" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="Y1" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="Z1" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="AA1" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="AB1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="AC1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AD1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AE1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="AH1" s="13" t="s">
         <v>90</v>
@@ -7379,28 +7376,28 @@
         <v>82</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7423,82 +7420,82 @@
         <v>408</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>410</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>408</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>233</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>292</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF2" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>565</v>
       </c>
       <c r="AG2" s="15" t="s">
         <v>245</v>
@@ -7507,13 +7504,13 @@
         <v>410</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>233</v>
@@ -7522,19 +7519,19 @@
         <v>230</v>
       </c>
       <c r="AN2" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="AO2" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="AO2" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -7614,118 +7611,118 @@
         <v>323</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="AE1" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>602</v>
-      </c>
       <c r="AI1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7742,116 +7739,116 @@
         <v>408</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="S2" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="W2" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="AG2" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="AM2" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AN2" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623CB40-95B1-4118-BA61-A33FC16A5B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C08D1E-F030-4EB5-ADA8-11C0A60DF633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Fields" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="776">
   <si>
     <t>rowid</t>
   </si>
@@ -2356,6 +2356,24 @@
   </si>
   <si>
     <t>Campomanes, Makee</t>
+  </si>
+  <si>
+    <t>Contact_FullName</t>
+  </si>
+  <si>
+    <t>Contact_Initials</t>
+  </si>
+  <si>
+    <t>Contact_FullName2</t>
+  </si>
+  <si>
+    <t>Contact_Initials2</t>
+  </si>
+  <si>
+    <t>Baker, James</t>
+  </si>
+  <si>
+    <t>JB</t>
   </si>
 </sst>
 </file>
@@ -5029,16 +5047,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EK2"/>
+  <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
@@ -5072,15 +5090,15 @@
     <col min="35" max="35" width="27.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="12.42578125" style="1" customWidth="1"/>
     <col min="37" max="37" width="14.5703125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="38.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.85546875" style="1" customWidth="1"/>
     <col min="40" max="40" width="28" style="1" customWidth="1"/>
     <col min="41" max="41" width="19" style="1" customWidth="1"/>
-    <col min="42" max="42" width="36.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="36.7109375" style="1" customWidth="1"/>
     <col min="44" max="44" width="18.5703125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="22" style="1" customWidth="1"/>
-    <col min="46" max="46" width="21" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="36.7109375" style="1" customWidth="1"/>
     <col min="48" max="48" width="20" style="1" customWidth="1"/>
     <col min="49" max="49" width="10" style="1" customWidth="1"/>
@@ -5093,89 +5111,93 @@
     <col min="56" max="56" width="19.28515625" style="1" customWidth="1"/>
     <col min="57" max="57" width="18.140625" style="1" customWidth="1"/>
     <col min="58" max="58" width="19.140625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="27.140625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="22.28515625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="23.28515625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="24.28515625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="29.28515625" style="1" customWidth="1"/>
-    <col min="64" max="64" width="21" style="1" customWidth="1"/>
-    <col min="65" max="65" width="25.5703125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="21.7109375" style="1" customWidth="1"/>
-    <col min="67" max="67" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.42578125" style="1" customWidth="1"/>
-    <col min="69" max="69" width="14.5703125" style="1" customWidth="1"/>
-    <col min="70" max="70" width="15.5703125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="33.5703125" style="1" customWidth="1"/>
-    <col min="72" max="72" width="33" style="1" customWidth="1"/>
-    <col min="73" max="73" width="39.140625" style="1" customWidth="1"/>
-    <col min="74" max="74" width="41" style="1" customWidth="1"/>
-    <col min="75" max="76" width="38.5703125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="38.85546875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="34.140625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="38.42578125" style="1" customWidth="1"/>
-    <col min="80" max="80" width="32.42578125" style="1" customWidth="1"/>
-    <col min="81" max="81" width="40" style="1" customWidth="1"/>
-    <col min="82" max="82" width="41" style="1" customWidth="1"/>
-    <col min="83" max="83" width="38" style="1" customWidth="1"/>
-    <col min="84" max="84" width="18.140625" style="1" customWidth="1"/>
-    <col min="85" max="85" width="31.140625" style="1" customWidth="1"/>
-    <col min="86" max="87" width="39.28515625" style="1" customWidth="1"/>
-    <col min="88" max="88" width="33.42578125" style="1" customWidth="1"/>
-    <col min="89" max="89" width="46.42578125" style="1" customWidth="1"/>
-    <col min="90" max="90" width="43.85546875" style="1" customWidth="1"/>
-    <col min="91" max="91" width="48.85546875" style="1" customWidth="1"/>
-    <col min="92" max="92" width="34.85546875" style="1" customWidth="1"/>
-    <col min="93" max="93" width="12" style="1" customWidth="1"/>
-    <col min="94" max="94" width="23.42578125" style="1" customWidth="1"/>
-    <col min="95" max="95" width="18.85546875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="20" style="1" customWidth="1"/>
-    <col min="97" max="97" width="25" style="1" customWidth="1"/>
-    <col min="98" max="98" width="20.42578125" style="1" customWidth="1"/>
-    <col min="99" max="99" width="25.85546875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="20.42578125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="27.140625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="22.28515625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="23.28515625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="24.28515625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="29.28515625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="21" style="1" customWidth="1"/>
+    <col min="69" max="69" width="25.5703125" style="1" customWidth="1"/>
+    <col min="70" max="70" width="21.7109375" style="1" customWidth="1"/>
+    <col min="71" max="71" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.42578125" style="1" customWidth="1"/>
+    <col min="73" max="73" width="14.5703125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="15.5703125" style="1" customWidth="1"/>
+    <col min="75" max="75" width="33.5703125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="33" style="1" customWidth="1"/>
+    <col min="77" max="77" width="39.140625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="41" style="1" customWidth="1"/>
+    <col min="79" max="80" width="38.5703125" style="1" customWidth="1"/>
+    <col min="81" max="81" width="38.85546875" style="1" customWidth="1"/>
+    <col min="82" max="82" width="34.140625" style="1" customWidth="1"/>
+    <col min="83" max="83" width="38.42578125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="32.42578125" style="1" customWidth="1"/>
+    <col min="85" max="85" width="40" style="1" customWidth="1"/>
+    <col min="86" max="86" width="41" style="1" customWidth="1"/>
+    <col min="87" max="87" width="38" style="1" customWidth="1"/>
+    <col min="88" max="88" width="18.140625" style="1" customWidth="1"/>
+    <col min="89" max="89" width="31.140625" style="1" customWidth="1"/>
+    <col min="90" max="91" width="39.28515625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="33.42578125" style="1" customWidth="1"/>
+    <col min="93" max="93" width="46.42578125" style="1" customWidth="1"/>
+    <col min="94" max="94" width="43.85546875" style="1" customWidth="1"/>
+    <col min="95" max="95" width="48.85546875" style="1" customWidth="1"/>
+    <col min="96" max="96" width="34.85546875" style="1" customWidth="1"/>
+    <col min="97" max="97" width="12" style="1" customWidth="1"/>
+    <col min="98" max="98" width="23.42578125" style="1" customWidth="1"/>
+    <col min="99" max="99" width="18.85546875" style="1" customWidth="1"/>
+    <col min="100" max="100" width="20" style="1" customWidth="1"/>
     <col min="101" max="101" width="25" style="1" customWidth="1"/>
     <col min="102" max="102" width="20.42578125" style="1" customWidth="1"/>
-    <col min="103" max="103" width="20.85546875" style="1" customWidth="1"/>
-    <col min="104" max="105" width="21.140625" style="1" customWidth="1"/>
-    <col min="106" max="106" width="28.7109375" style="1" customWidth="1"/>
-    <col min="107" max="107" width="23.5703125" style="1" customWidth="1"/>
-    <col min="108" max="108" width="19" style="1" customWidth="1"/>
-    <col min="109" max="109" width="16.7109375" style="1" customWidth="1"/>
-    <col min="110" max="110" width="21.140625" style="1" customWidth="1"/>
-    <col min="111" max="111" width="12.140625" style="1" customWidth="1"/>
-    <col min="112" max="112" width="16" style="1" customWidth="1"/>
-    <col min="113" max="113" width="20.42578125" style="1" customWidth="1"/>
-    <col min="114" max="114" width="19" style="1" customWidth="1"/>
-    <col min="115" max="115" width="19.140625" style="1" customWidth="1"/>
-    <col min="116" max="116" width="19" style="1" customWidth="1"/>
-    <col min="117" max="117" width="14.85546875" style="1" customWidth="1"/>
-    <col min="118" max="118" width="19.28515625" style="1" customWidth="1"/>
-    <col min="119" max="119" width="19.7109375" style="1" customWidth="1"/>
-    <col min="120" max="120" width="19.42578125" style="1" customWidth="1"/>
-    <col min="121" max="121" width="31.140625" style="1" customWidth="1"/>
-    <col min="122" max="122" width="29" style="1" customWidth="1"/>
-    <col min="123" max="123" width="28.140625" style="1" customWidth="1"/>
-    <col min="124" max="124" width="23.42578125" style="1" customWidth="1"/>
-    <col min="125" max="125" width="23" style="1" customWidth="1"/>
-    <col min="126" max="126" width="32.7109375" style="1" customWidth="1"/>
-    <col min="127" max="127" width="31.28515625" style="1" customWidth="1"/>
-    <col min="128" max="128" width="28.7109375" style="1" customWidth="1"/>
-    <col min="129" max="129" width="26" style="1" customWidth="1"/>
-    <col min="130" max="130" width="26.42578125" style="1" customWidth="1"/>
-    <col min="131" max="131" width="22.85546875" style="1" customWidth="1"/>
-    <col min="132" max="132" width="20.28515625" style="1" customWidth="1"/>
-    <col min="133" max="133" width="35.7109375" style="1" customWidth="1"/>
-    <col min="134" max="134" width="34.28515625" style="1" customWidth="1"/>
-    <col min="135" max="135" width="31.7109375" style="1" customWidth="1"/>
-    <col min="136" max="136" width="22" style="1" customWidth="1"/>
-    <col min="137" max="137" width="35.42578125" style="1" customWidth="1"/>
-    <col min="138" max="138" width="28" style="1" customWidth="1"/>
-    <col min="139" max="139" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="25.85546875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="20.42578125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="25" style="1" customWidth="1"/>
+    <col min="106" max="106" width="20.42578125" style="1" customWidth="1"/>
+    <col min="107" max="107" width="20.85546875" style="1" customWidth="1"/>
+    <col min="108" max="109" width="21.140625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="28.7109375" style="1" customWidth="1"/>
+    <col min="111" max="111" width="23.5703125" style="1" customWidth="1"/>
+    <col min="112" max="112" width="19" style="1" customWidth="1"/>
+    <col min="113" max="113" width="16.7109375" style="1" customWidth="1"/>
+    <col min="114" max="114" width="21.140625" style="1" customWidth="1"/>
+    <col min="115" max="115" width="12.140625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="16" style="1" customWidth="1"/>
+    <col min="117" max="117" width="20.42578125" style="1" customWidth="1"/>
+    <col min="118" max="118" width="19" style="1" customWidth="1"/>
+    <col min="119" max="119" width="19.140625" style="1" customWidth="1"/>
+    <col min="120" max="120" width="19" style="1" customWidth="1"/>
+    <col min="121" max="121" width="14.85546875" style="1" customWidth="1"/>
+    <col min="122" max="122" width="19.28515625" style="1" customWidth="1"/>
+    <col min="123" max="123" width="19.7109375" style="1" customWidth="1"/>
+    <col min="124" max="124" width="19.42578125" style="1" customWidth="1"/>
+    <col min="125" max="125" width="31.140625" style="1" customWidth="1"/>
+    <col min="126" max="126" width="29" style="1" customWidth="1"/>
+    <col min="127" max="127" width="28.140625" style="1" customWidth="1"/>
+    <col min="128" max="128" width="23.42578125" style="1" customWidth="1"/>
+    <col min="129" max="129" width="23" style="1" customWidth="1"/>
+    <col min="130" max="130" width="32.7109375" style="1" customWidth="1"/>
+    <col min="131" max="131" width="31.28515625" style="1" customWidth="1"/>
+    <col min="132" max="132" width="28.7109375" style="1" customWidth="1"/>
+    <col min="133" max="133" width="26" style="1" customWidth="1"/>
+    <col min="134" max="134" width="26.42578125" style="1" customWidth="1"/>
+    <col min="135" max="135" width="22.85546875" style="1" customWidth="1"/>
+    <col min="136" max="136" width="20.28515625" style="1" customWidth="1"/>
+    <col min="137" max="137" width="35.7109375" style="1" customWidth="1"/>
+    <col min="138" max="138" width="34.28515625" style="1" customWidth="1"/>
+    <col min="139" max="139" width="31.7109375" style="1" customWidth="1"/>
+    <col min="140" max="140" width="22" style="1" customWidth="1"/>
+    <col min="141" max="141" width="35.42578125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="28" style="1" customWidth="1"/>
+    <col min="143" max="143" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5348,256 +5370,268 @@
         <v>134</v>
       </c>
       <c r="BG1" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="BI1" s="51" t="s">
+        <v>771</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="BK1" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="BH1" s="51" t="s">
+      <c r="BL1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="BL1" s="51" t="s">
+      <c r="BP1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BN1" s="51" t="s">
+      <c r="BR1" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="BO1" s="51" t="s">
+      <c r="BS1" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="BQ1" s="51" t="s">
+      <c r="BU1" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="BT1" s="51" t="s">
+      <c r="BX1" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="BU1" s="51" t="s">
+      <c r="BY1" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="BV1" s="51" t="s">
+      <c r="BZ1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="BW1" s="51" t="s">
+      <c r="CA1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BY1" s="51" t="s">
+      <c r="CC1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="CB1" s="51" t="s">
+      <c r="CF1" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="CC1" s="52" t="s">
+      <c r="CG1" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="CF1" s="51" t="s">
+      <c r="CJ1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="CG1" s="51" t="s">
+      <c r="CK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="DC1" s="51" t="s">
+      <c r="DG1" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DK1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DL1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DM1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DN1" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DO1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="DP1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="DR1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DS1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="DT1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="DU1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DV1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="DW1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="DT1" s="51" t="s">
+      <c r="DX1" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="DU1" s="51" t="s">
+      <c r="DY1" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="DV1" s="51" t="s">
+      <c r="DZ1" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="DW1" s="51" t="s">
+      <c r="EA1" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="DX1" s="51" t="s">
+      <c r="EB1" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="DY1" s="51" t="s">
+      <c r="EC1" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="DZ1" s="51" t="s">
+      <c r="ED1" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="EA1" s="51" t="s">
+      <c r="EE1" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="EB1" s="51" t="s">
+      <c r="EF1" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="EC1" s="51" t="s">
+      <c r="EG1" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="ED1" s="51" t="s">
+      <c r="EH1" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="EE1" s="51" t="s">
+      <c r="EI1" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="EF1" s="51" t="s">
+      <c r="EJ1" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="EG1" s="51" t="s">
+      <c r="EK1" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="EH1" s="51" t="s">
+      <c r="EL1" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="EM1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EN1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EO1" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:145" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
         <v>43</v>
       </c>
@@ -5759,207 +5793,207 @@
         <v>262</v>
       </c>
       <c r="BG2" s="73" t="s">
+        <v>769</v>
+      </c>
+      <c r="BH2" s="73" t="s">
+        <v>774</v>
+      </c>
+      <c r="BI2" s="73" t="s">
+        <v>768</v>
+      </c>
+      <c r="BJ2" s="73" t="s">
+        <v>775</v>
+      </c>
+      <c r="BK2" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="BH2" s="73" t="s">
+      <c r="BL2" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="BI2" s="73" t="s">
+      <c r="BM2" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="BJ2" s="73" t="s">
+      <c r="BN2" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="BK2" s="73" t="s">
+      <c r="BO2" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="BL2" s="73" t="s">
+      <c r="BP2" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="BM2" s="73" t="s">
+      <c r="BQ2" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="BN2" s="73" t="s">
+      <c r="BR2" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="BO2" s="78" t="s">
+      <c r="BS2" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BT2" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="BQ2" s="73" t="s">
+      <c r="BU2" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="BR2" s="73" t="s">
+      <c r="BV2" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="BS2" s="73" t="s">
+      <c r="BW2" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="BT2" s="73" t="s">
+      <c r="BX2" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="BU2" s="73" t="s">
+      <c r="BY2" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="BV2" s="75" t="s">
+      <c r="BZ2" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="BW2" s="75" t="s">
+      <c r="CA2" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="BX2" s="75" t="s">
+      <c r="CB2" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="BY2" s="73" t="s">
+      <c r="CC2" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="BZ2" s="73" t="s">
+      <c r="CD2" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="CA2" s="73" t="s">
+      <c r="CE2" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="CB2" s="73" t="s">
+      <c r="CF2" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="CC2" s="70" t="s">
+      <c r="CG2" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="CD2" s="70" t="s">
+      <c r="CH2" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="CE2" s="75" t="s">
+      <c r="CI2" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="CF2" s="75" t="s">
+      <c r="CJ2" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="CG2" s="75" t="s">
+      <c r="CK2" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="CH2" s="75" t="s">
+      <c r="CL2" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="CI2" s="75" t="s">
+      <c r="CM2" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="CJ2" s="73" t="s">
+      <c r="CN2" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="CK2" s="73" t="s">
+      <c r="CO2" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="CL2" s="73" t="s">
+      <c r="CP2" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="CM2" s="73" t="s">
+      <c r="CQ2" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="CN2" s="73" t="s">
+      <c r="CR2" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="CO2" s="73" t="s">
+      <c r="CS2" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="CP2" s="73" t="s">
+      <c r="CT2" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="CQ2" s="73" t="s">
+      <c r="CU2" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="CR2" s="73" t="s">
+      <c r="CV2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="CS2" s="73" t="s">
+      <c r="CW2" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="CT2" s="73" t="s">
+      <c r="CX2" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="CU2" s="73" t="s">
+      <c r="CY2" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="CV2" s="73" t="s">
+      <c r="CZ2" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="CW2" s="73" t="s">
+      <c r="DA2" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="CX2" s="73" t="s">
+      <c r="DB2" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="CY2" s="73" t="s">
+      <c r="DC2" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="CZ2" s="73" t="s">
+      <c r="DD2" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="DA2" s="73" t="s">
+      <c r="DE2" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="DB2" s="76" t="s">
+      <c r="DF2" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="DC2" s="73" t="s">
+      <c r="DG2" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="DD2" s="75" t="s">
+      <c r="DH2" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="DE2" s="75" t="s">
+      <c r="DI2" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="DF2" s="75" t="s">
+      <c r="DJ2" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="DG2" s="75" t="s">
+      <c r="DK2" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="DH2" s="75"/>
-      <c r="DI2" s="75"/>
-      <c r="DJ2" s="75" t="s">
+      <c r="DL2" s="75"/>
+      <c r="DM2" s="75"/>
+      <c r="DN2" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="DK2" s="75" t="s">
+      <c r="DO2" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="DL2" s="75" t="s">
+      <c r="DP2" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="DM2" s="75" t="s">
+      <c r="DQ2" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="DN2" s="75" t="s">
+      <c r="DR2" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="DO2" s="75" t="s">
+      <c r="DS2" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="DP2" s="75" t="s">
+      <c r="DT2" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="DQ2" s="75" t="s">
+      <c r="DU2" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="DR2" s="77" t="s">
+      <c r="DV2" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="DS2" s="75" t="s">
+      <c r="DW2" s="75" t="s">
         <v>312</v>
-      </c>
-      <c r="DT2" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="DU2" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="DV2" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="DW2" s="75" t="s">
-        <v>313</v>
       </c>
       <c r="DX2" s="75" t="s">
         <v>313</v>
@@ -5992,21 +6026,33 @@
         <v>313</v>
       </c>
       <c r="EH2" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="EI2" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="EJ2" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="EK2" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="EL2" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="EI2" s="75" t="s">
+      <c r="EM2" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="EJ2" s="75" t="s">
+      <c r="EN2" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="EK2" s="75" t="s">
+      <c r="EO2" s="75" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BO2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="BS2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -6022,8 +6068,8 @@
   <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CQ7" sqref="CQ7"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6582,11 +6628,11 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="9" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users_Fields" sheetId="1" state="visible" r:id="rId1"/>
@@ -762,8 +762,8 @@
     <col width="8.7109375" customWidth="1" style="61" min="42" max="42"/>
     <col width="11.28515625" customWidth="1" style="61" min="43" max="43"/>
     <col width="8.7109375" customWidth="1" style="61" min="44" max="45"/>
-    <col width="9.140625" customWidth="1" style="65" min="46" max="56"/>
-    <col width="9.140625" customWidth="1" style="65" min="57" max="16384"/>
+    <col width="9.140625" customWidth="1" style="65" min="46" max="71"/>
+    <col width="9.140625" customWidth="1" style="65" min="72" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="58">
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1330,8 +1330,8 @@
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1348,7 +1348,7 @@
     <col width="38" customWidth="1" style="1" min="10" max="10"/>
     <col width="22.140625" customWidth="1" style="1" min="11" max="11"/>
     <col width="18.140625" customWidth="1" style="1" min="12" max="12"/>
-    <col width="22.28515625" customWidth="1" style="1" min="13" max="13"/>
+    <col width="37" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
     <col width="14.85546875" customWidth="1" style="1" min="14" max="14"/>
     <col width="15.7109375" customWidth="1" style="1" min="15" max="15"/>
     <col width="16.5703125" customWidth="1" style="1" min="16" max="16"/>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>DDAEUR1-3253</t>
+          <t>DDAEUR1-2709</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>Sanseera Electronics Ltd 1211447</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -1761,9 +1761,9 @@
           <t>Term</t>
         </is>
       </c>
-      <c r="AA2" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">john.blogg@abc.com </t>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>makee.campomanes@abc.com</t>
         </is>
       </c>
       <c r="AB2" s="32" t="n">
@@ -1790,8 +1790,8 @@
   </sheetPr>
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1803,7 +1803,7 @@
     <col width="21.140625" customWidth="1" style="15" min="5" max="5"/>
     <col width="27.7109375" customWidth="1" style="15" min="6" max="6"/>
     <col width="27.140625" customWidth="1" style="15" min="7" max="7"/>
-    <col width="14.5703125" customWidth="1" style="15" min="8" max="8"/>
+    <col width="37" bestFit="1" customWidth="1" style="15" min="8" max="8"/>
     <col width="10.42578125" customWidth="1" style="15" min="9" max="9"/>
     <col width="18.5703125" customWidth="1" style="15" min="10" max="10"/>
     <col width="29" customWidth="1" style="15" min="11" max="11"/>
@@ -1819,7 +1819,7 @@
     <col width="27.140625" customWidth="1" style="15" min="21" max="21"/>
     <col width="29.42578125" customWidth="1" style="15" min="22" max="22"/>
     <col width="17.7109375" customWidth="1" style="15" min="23" max="23"/>
-    <col width="22.85546875" customWidth="1" style="15" min="24" max="24"/>
+    <col width="27.85546875" bestFit="1" customWidth="1" style="15" min="24" max="24"/>
     <col width="21.85546875" customWidth="1" style="15" min="25" max="26"/>
     <col width="18.7109375" customWidth="1" style="15" min="27" max="27"/>
     <col width="17.28515625" customWidth="1" style="15" min="28" max="28"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="D2" s="15" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -2112,12 +2112,12 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>Sanseera Electronics Ltd 1211447</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>60000278</t>
+          <t>60000475</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -2132,12 +2132,12 @@
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
@@ -2185,16 +2185,16 @@
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="X2" s="31" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>makee.campomanes@abc.com</t>
         </is>
       </c>
       <c r="Y2" s="15" t="n"/>
       <c r="Z2" s="15" t="n"/>
       <c r="AA2" s="1" t="inlineStr">
         <is>
-          <t>john.blogg@abc.com</t>
+          <t>makee.campomanes@abc.com</t>
         </is>
       </c>
       <c r="AB2" s="1" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="AO2" s="1" t="inlineStr">
         <is>
-          <t>DDAEUR1-3253</t>
+          <t>DDAEUR1-2709</t>
         </is>
       </c>
       <c r="AP2" s="1" t="inlineStr">
@@ -2291,6 +2291,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="N4" s="44" t="n"/>
     </row>
@@ -2310,8 +2311,8 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2349,9 +2350,9 @@
     <col width="10.85546875" customWidth="1" style="1" min="31" max="31"/>
     <col width="13.28515625" customWidth="1" style="1" min="32" max="32"/>
     <col width="31.42578125" customWidth="1" style="1" min="33" max="33"/>
-    <col width="19.28515625" customWidth="1" style="1" min="34" max="34"/>
+    <col width="27.85546875" bestFit="1" customWidth="1" style="1" min="34" max="34"/>
     <col width="29" customWidth="1" style="1" min="35" max="36"/>
-    <col width="17.5703125" customWidth="1" style="1" min="37" max="37"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
     <col width="14.7109375" customWidth="1" style="1" min="38" max="38"/>
   </cols>
   <sheetData>
@@ -2580,7 +2581,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2595,7 +2596,7 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>DDAEUR1-3253</t>
+          <t>DDAEUR1-2709</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -2605,7 +2606,7 @@
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -2630,12 +2631,12 @@
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="T2" s="1" t="inlineStr">
@@ -2701,9 +2702,9 @@
           <t>UNUT Fee Due</t>
         </is>
       </c>
-      <c r="AH2" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">john.blogg@abc.com </t>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>makee.campomanes@abc.com</t>
         </is>
       </c>
       <c r="AI2" s="1" t="inlineStr">
@@ -2718,7 +2719,7 @@
       </c>
       <c r="AK2" s="1" t="inlineStr">
         <is>
-          <t>John Bloggs</t>
+          <t>Makee Campomanes</t>
         </is>
       </c>
       <c r="AL2" s="1" t="inlineStr">
@@ -2764,8 +2765,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2823,7 +2824,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -2855,15 +2856,15 @@
   </sheetPr>
   <dimension ref="A1:CF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="27.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="29.140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
     <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
     <col width="18.85546875" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="11.5703125" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
@@ -2895,8 +2896,8 @@
     <col width="16.28515625" bestFit="1" customWidth="1" style="1" min="33" max="33"/>
     <col width="6" bestFit="1" customWidth="1" style="1" min="34" max="34"/>
     <col width="16.7109375" bestFit="1" customWidth="1" style="1" min="35" max="35"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" style="1" min="36" max="36"/>
-    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
+    <col width="37" bestFit="1" customWidth="1" style="1" min="36" max="36"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
     <col width="16.85546875" customWidth="1" style="1" min="38" max="38"/>
     <col width="28" customWidth="1" style="1" min="39" max="39"/>
     <col width="19" customWidth="1" style="1" min="40" max="40"/>
@@ -3246,14 +3247,12 @@
           <t>Sanseera Electronics Ltd</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1311555</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1211447</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>SE Ltd</t>
+          <t>SE LTD</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
@@ -3392,9 +3391,24 @@
           <t>CBA - Amsterdam</t>
         </is>
       </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="AI2" s="46" t="inlineStr">
+        <is>
+          <t>00000852</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>Sanseera Electronics Ltd 1211447</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
     </row>
@@ -3432,10 +3446,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO2"/>
+  <dimension ref="A1:EO9"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3453,7 +3467,7 @@
     <col width="48.5703125" customWidth="1" style="1" min="11" max="11"/>
     <col width="20.5703125" customWidth="1" style="1" min="13" max="13"/>
     <col width="24.28515625" customWidth="1" style="1" min="14" max="14"/>
-    <col width="30.140625" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
+    <col width="37" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
     <col width="15.7109375" customWidth="1" style="1" min="16" max="16"/>
     <col width="40.5703125" customWidth="1" style="1" min="17" max="17"/>
     <col width="41.5703125" customWidth="1" style="1" min="18" max="18"/>
@@ -4369,22 +4383,20 @@
       </c>
       <c r="N2" s="70" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="O2" s="70" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
-        </is>
-      </c>
-      <c r="P2" s="70" t="inlineStr">
-        <is>
-          <t>1311555</t>
-        </is>
+          <t>Sanseera Electronics Ltd 1211447</t>
+        </is>
+      </c>
+      <c r="P2" s="70" t="n">
+        <v>1211447</v>
       </c>
       <c r="Q2" s="72" t="inlineStr">
         <is>
-          <t>DDAEUR1-3253</t>
+          <t>DDAEUR1-2709</t>
         </is>
       </c>
       <c r="T2" s="73" t="inlineStr">
@@ -4394,7 +4406,7 @@
       </c>
       <c r="U2" s="72" t="inlineStr">
         <is>
-          <t>RTGSEUR1-3254</t>
+          <t>RTGSEUR1-2711</t>
         </is>
       </c>
       <c r="W2" s="71" t="inlineStr">
@@ -4576,7 +4588,7 @@
       </c>
       <c r="BG2" s="73" t="inlineStr">
         <is>
-          <t>Campomanes, Makee</t>
+          <t>Campomanes,  Makee</t>
         </is>
       </c>
       <c r="BH2" s="73" t="inlineStr">
@@ -4706,7 +4718,7 @@
       </c>
       <c r="CG2" s="70" t="inlineStr">
         <is>
-          <t>IMTEUR1-3253</t>
+          <t>IMTEUR1-2710</t>
         </is>
       </c>
       <c r="CH2" s="70" t="inlineStr">
@@ -4999,6 +5011,13 @@
       <c r="EO2" s="75" t="inlineStr">
         <is>
           <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="BH9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5018,11 +5037,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI2"/>
+  <dimension ref="A1:CJ2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5109,6 +5128,7 @@
     <col width="31.140625" customWidth="1" style="1" min="84" max="85"/>
     <col width="40.7109375" bestFit="1" customWidth="1" min="86" max="86"/>
     <col width="15.85546875" bestFit="1" customWidth="1" min="87" max="87"/>
+    <col width="6" bestFit="1" customWidth="1" min="88" max="88"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="2">
@@ -5547,6 +5567,11 @@
           <t>ProcessingArea</t>
         </is>
       </c>
+      <c r="CJ1" s="3" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -5571,17 +5596,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CE_13102020124742JDG</t>
+          <t>CE_16102020124058QGL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -5606,7 +5631,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -5805,12 +5830,12 @@
       </c>
       <c r="BX2" s="14" t="inlineStr">
         <is>
-          <t>Campomanes, Makee</t>
+          <t>Campomanes,  Makee</t>
         </is>
       </c>
       <c r="BY2" s="14" t="inlineStr">
         <is>
-          <t>DDA</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
@@ -5844,6 +5869,11 @@
       <c r="CI2" t="inlineStr">
         <is>
           <t>Team Amsterdam</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -5860,13 +5890,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -5901,6 +5931,7 @@
     <col width="24.7109375" customWidth="1" style="1" min="30" max="30"/>
     <col width="25.5703125" customWidth="1" style="1" min="31" max="31"/>
     <col width="24.42578125" customWidth="1" style="1" min="32" max="32"/>
+    <col width="6" bestFit="1" customWidth="1" min="33" max="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -6064,6 +6095,11 @@
           <t>Facility_BorrowerPercent</t>
         </is>
       </c>
+      <c r="AG1" s="3" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="46" t="inlineStr">
@@ -6088,12 +6124,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -6186,7 +6222,7 @@
       </c>
       <c r="AC2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
+          <t>SE LTD 1211447</t>
         </is>
       </c>
       <c r="AD2" s="1" t="inlineStr">
@@ -6202,6 +6238,11 @@
       <c r="AF2" s="27" t="inlineStr">
         <is>
           <t>100.000000%</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>EU</t>
         </is>
       </c>
     </row>
@@ -6224,7 +6265,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -6369,7 +6410,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -6479,8 +6520,8 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6664,12 +6705,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -6800,10 +6841,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6816,41 +6857,41 @@
     <col width="21.140625" customWidth="1" style="15" min="6" max="6"/>
     <col width="14.5703125" customWidth="1" style="15" min="7" max="7"/>
     <col width="26.7109375" customWidth="1" style="15" min="8" max="8"/>
-    <col width="33.28515625" customWidth="1" style="15" min="9" max="9"/>
-    <col width="21.7109375" customWidth="1" style="15" min="10" max="10"/>
-    <col width="17.42578125" customWidth="1" style="15" min="11" max="11"/>
-    <col width="21.140625" customWidth="1" style="15" min="12" max="12"/>
-    <col width="10.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="18.5703125" customWidth="1" style="15" min="14" max="14"/>
-    <col width="14.140625" customWidth="1" style="15" min="15" max="15"/>
-    <col width="23.28515625" customWidth="1" style="15" min="16" max="16"/>
-    <col width="17.28515625" customWidth="1" style="15" min="17" max="17"/>
-    <col width="18.42578125" customWidth="1" style="15" min="18" max="18"/>
-    <col width="18.28515625" customWidth="1" style="15" min="19" max="19"/>
-    <col width="24.140625" customWidth="1" style="15" min="20" max="20"/>
-    <col width="23" customWidth="1" style="15" min="21" max="21"/>
-    <col width="20.5703125" customWidth="1" style="15" min="22" max="22"/>
-    <col width="18.7109375" customWidth="1" style="15" min="23" max="23"/>
-    <col width="30.28515625" customWidth="1" style="15" min="24" max="24"/>
-    <col width="27.7109375" customWidth="1" style="15" min="25" max="25"/>
-    <col width="22.85546875" customWidth="1" style="15" min="26" max="26"/>
-    <col width="26.85546875" customWidth="1" style="15" min="27" max="27"/>
-    <col width="21" customWidth="1" style="15" min="28" max="28"/>
-    <col width="28" customWidth="1" style="15" min="29" max="29"/>
-    <col width="21.42578125" customWidth="1" style="15" min="30" max="30"/>
-    <col width="32.28515625" customWidth="1" style="15" min="31" max="31"/>
-    <col width="36.5703125" customWidth="1" style="15" min="32" max="32"/>
-    <col width="16.5703125" customWidth="1" style="15" min="33" max="33"/>
-    <col width="24.28515625" customWidth="1" style="15" min="34" max="34"/>
-    <col width="15.7109375" customWidth="1" style="15" min="35" max="35"/>
-    <col width="22.140625" customWidth="1" style="15" min="36" max="36"/>
-    <col width="18.140625" customWidth="1" style="15" min="37" max="37"/>
-    <col width="14.85546875" customWidth="1" style="15" min="38" max="38"/>
-    <col width="22.85546875" customWidth="1" style="15" min="39" max="39"/>
-    <col width="20.5703125" customWidth="1" style="15" min="40" max="41"/>
-    <col width="40.85546875" customWidth="1" style="1" min="42" max="42"/>
-    <col width="14.7109375" customWidth="1" style="1" min="43" max="43"/>
-    <col width="12.140625" bestFit="1" customWidth="1" min="44" max="44"/>
+    <col width="33.28515625" customWidth="1" style="15" min="9" max="10"/>
+    <col width="21.7109375" customWidth="1" style="15" min="11" max="11"/>
+    <col width="17.42578125" customWidth="1" style="15" min="12" max="12"/>
+    <col width="21.140625" customWidth="1" style="15" min="13" max="13"/>
+    <col width="10.42578125" customWidth="1" style="15" min="14" max="14"/>
+    <col width="18.5703125" customWidth="1" style="15" min="15" max="15"/>
+    <col width="14.140625" customWidth="1" style="15" min="16" max="16"/>
+    <col width="23.28515625" customWidth="1" style="15" min="17" max="17"/>
+    <col width="17.28515625" customWidth="1" style="15" min="18" max="18"/>
+    <col width="18.42578125" customWidth="1" style="15" min="19" max="19"/>
+    <col width="18.28515625" customWidth="1" style="15" min="20" max="20"/>
+    <col width="24.140625" customWidth="1" style="15" min="21" max="21"/>
+    <col width="23" customWidth="1" style="15" min="22" max="22"/>
+    <col width="20.5703125" customWidth="1" style="15" min="23" max="23"/>
+    <col width="18.7109375" customWidth="1" style="15" min="24" max="24"/>
+    <col width="30.28515625" customWidth="1" style="15" min="25" max="25"/>
+    <col width="27.7109375" customWidth="1" style="15" min="26" max="26"/>
+    <col width="22.85546875" customWidth="1" style="15" min="27" max="27"/>
+    <col width="26.85546875" customWidth="1" style="15" min="28" max="28"/>
+    <col width="21" customWidth="1" style="15" min="29" max="29"/>
+    <col width="28" customWidth="1" style="15" min="30" max="30"/>
+    <col width="21.42578125" customWidth="1" style="15" min="31" max="31"/>
+    <col width="32.28515625" customWidth="1" style="15" min="32" max="32"/>
+    <col width="36.5703125" customWidth="1" style="15" min="33" max="33"/>
+    <col width="16.5703125" customWidth="1" style="15" min="34" max="34"/>
+    <col width="24.28515625" customWidth="1" style="15" min="35" max="35"/>
+    <col width="15.7109375" customWidth="1" style="15" min="36" max="36"/>
+    <col width="22.140625" customWidth="1" style="15" min="37" max="37"/>
+    <col width="18.140625" customWidth="1" style="15" min="38" max="38"/>
+    <col width="14.85546875" customWidth="1" style="15" min="39" max="39"/>
+    <col width="22.85546875" customWidth="1" style="15" min="40" max="40"/>
+    <col width="20.5703125" customWidth="1" style="15" min="41" max="42"/>
+    <col width="40.85546875" customWidth="1" style="1" min="43" max="43"/>
+    <col width="14.7109375" customWidth="1" style="1" min="44" max="44"/>
+    <col width="12.140625" bestFit="1" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -6901,175 +6942,180 @@
       </c>
       <c r="J1" s="30" t="inlineStr">
         <is>
+          <t>Borrower1_LegalName</t>
+        </is>
+      </c>
+      <c r="K1" s="30" t="inlineStr">
+        <is>
           <t>Borrower1_ShortName</t>
         </is>
       </c>
-      <c r="K1" s="29" t="inlineStr">
+      <c r="L1" s="29" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="L1" s="30" t="inlineStr">
+      <c r="M1" s="30" t="inlineStr">
         <is>
           <t>Loan_FacilityName</t>
         </is>
       </c>
-      <c r="M1" s="30" t="inlineStr">
+      <c r="N1" s="30" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="N1" s="29" t="inlineStr">
+      <c r="O1" s="29" t="inlineStr">
         <is>
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="O1" s="29" t="inlineStr">
+      <c r="P1" s="29" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="P1" s="29" t="inlineStr">
+      <c r="Q1" s="29" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="Q1" s="29" t="inlineStr">
+      <c r="R1" s="29" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="R1" s="30" t="inlineStr">
+      <c r="S1" s="30" t="inlineStr">
         <is>
           <t>Loan_EffectiveDate</t>
         </is>
       </c>
-      <c r="S1" s="30" t="inlineStr">
+      <c r="T1" s="30" t="inlineStr">
         <is>
           <t>Loan_MaturityDate</t>
         </is>
       </c>
-      <c r="T1" s="29" t="inlineStr">
+      <c r="U1" s="29" t="inlineStr">
         <is>
           <t>Loan_RepricingFrequency</t>
         </is>
       </c>
-      <c r="U1" s="29" t="inlineStr">
+      <c r="V1" s="29" t="inlineStr">
         <is>
           <t>Loan_IntCycleFrequency</t>
         </is>
       </c>
-      <c r="V1" s="29" t="inlineStr">
+      <c r="W1" s="29" t="inlineStr">
         <is>
           <t>Loan_Accrue</t>
         </is>
       </c>
-      <c r="W1" s="29" t="inlineStr">
+      <c r="X1" s="29" t="inlineStr">
         <is>
           <t>Borrower_BaseRate</t>
         </is>
       </c>
-      <c r="X1" s="29" t="inlineStr">
+      <c r="Y1" s="29" t="inlineStr">
         <is>
           <t>Repayment_ScheduleFrequency</t>
         </is>
       </c>
-      <c r="Y1" s="29" t="inlineStr">
+      <c r="Z1" s="29" t="inlineStr">
         <is>
           <t>Repayment_NumberOfCycles</t>
         </is>
       </c>
-      <c r="Z1" s="30" t="inlineStr">
+      <c r="AA1" s="30" t="inlineStr">
         <is>
           <t>Repayment_TriggerDate</t>
         </is>
       </c>
-      <c r="AA1" s="29" t="inlineStr">
+      <c r="AB1" s="29" t="inlineStr">
         <is>
           <t>Repayment_NonBusDayRule</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>WIP_OutstandingType</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>WIP_AwaitingRateApprovalStatus</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseCashflowsStatus</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>Borrower_Profile</t>
         </is>
       </c>
-      <c r="AH1" s="13" t="inlineStr">
+      <c r="AI1" s="13" t="inlineStr">
         <is>
           <t>LIQCustomer_ShortName</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>LIQCustomer_ID</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="AM1" s="13" t="inlineStr">
+      <c r="AN1" s="13" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>HostBank_GLAccount</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>Borrower_GLAccount</t>
         </is>
       </c>
-      <c r="AP1" s="3" t="inlineStr">
+      <c r="AQ1" s="3" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="AQ1" s="3" t="inlineStr">
+      <c r="AR1" s="3" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="AR1" s="3" t="inlineStr">
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>BranchCode</t>
         </is>
@@ -7086,14 +7132,14 @@
           <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>makee.campomanes@abc.com</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="E2" s="15" t="inlineStr">
@@ -7103,7 +7149,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="G2" s="15" t="inlineStr">
@@ -7123,182 +7169,187 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
-        </is>
-      </c>
-      <c r="K2" s="15" t="inlineStr">
+          <t>Sanseera Electronics Ltd 1211447</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>SE LTD 1211447</t>
+        </is>
+      </c>
+      <c r="L2" s="15" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>CEU_FAC_10062020130642XHO</t>
-        </is>
-      </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>60000278</t>
-        </is>
-      </c>
-      <c r="N2" s="15" t="inlineStr">
+          <t>CEU_FAC_16102020124712PFA</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>60000475</t>
+        </is>
+      </c>
+      <c r="O2" s="15" t="inlineStr">
         <is>
           <t>Fixed Rate Option</t>
         </is>
       </c>
-      <c r="O2" s="15" t="inlineStr">
+      <c r="P2" s="15" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P2" s="15" t="inlineStr">
+      <c r="Q2" s="15" t="inlineStr">
         <is>
           <t>10000.00</t>
         </is>
       </c>
-      <c r="Q2" s="15" t="inlineStr">
+      <c r="R2" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>22-May-2020</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>22-Jun-2021</t>
         </is>
       </c>
-      <c r="T2" s="15" t="inlineStr">
+      <c r="U2" s="15" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="U2" s="15" t="inlineStr">
+      <c r="V2" s="15" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="V2" s="15" t="inlineStr">
+      <c r="W2" s="15" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
       </c>
-      <c r="W2" s="15" t="inlineStr">
+      <c r="X2" s="15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X2" s="15" t="inlineStr">
+      <c r="Y2" s="15" t="inlineStr">
         <is>
           <t>Weeks</t>
         </is>
       </c>
-      <c r="Y2" s="15" t="inlineStr">
+      <c r="Z2" s="15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>22-May-2020</t>
         </is>
       </c>
-      <c r="AA2" s="15" t="inlineStr">
+      <c r="AB2" s="15" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Outstandings</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Loan Initial Drawdown</t>
         </is>
       </c>
-      <c r="AE2" s="15" t="inlineStr">
+      <c r="AF2" s="15" t="inlineStr">
         <is>
           <t>Awaiting Rate Approval</t>
         </is>
       </c>
-      <c r="AF2" s="15" t="inlineStr">
+      <c r="AG2" s="15" t="inlineStr">
         <is>
           <t>Awaiting Release Cashflows</t>
         </is>
       </c>
-      <c r="AG2" s="15" t="inlineStr">
+      <c r="AH2" s="15" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AH2" s="1" t="inlineStr">
-        <is>
-          <t>Sanseera Electronics Ltd 1311555</t>
-        </is>
-      </c>
       <c r="AI2" s="1" t="inlineStr">
         <is>
+          <t>SE LTD 1211447</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
       <c r="AK2" s="1" t="inlineStr">
         <is>
+          <t>IMT</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AM2" s="1" t="inlineStr">
-        <is>
-          <t>DDAEUR1-3253</t>
-        </is>
-      </c>
-      <c r="AN2" s="32" t="inlineStr">
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>IMTEUR1-3007</t>
+        </is>
+      </c>
+      <c r="AO2" s="32" t="inlineStr">
         <is>
           <t>12001001836</t>
         </is>
       </c>
-      <c r="AO2" s="32" t="inlineStr">
+      <c r="AP2" s="32" t="inlineStr">
         <is>
           <t>18567000000</t>
         </is>
       </c>
-      <c r="AP2" s="1" t="inlineStr">
+      <c r="AQ2" s="1" t="inlineStr">
         <is>
           <t>CG852/Hold for Investment - Europe/BP_CML</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AR2" s="1" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="AR2" s="1" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>CG852</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="AP5" s="33" t="n"/>
+      <c r="AQ5" s="33" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -7315,8 +7366,8 @@
   </sheetPr>
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7588,12 +7639,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>CBAEU_13102020124739QOR</t>
+          <t>CBAEU_16102020124055WPJ</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>CEU_FAC_10062020130642XHO</t>
+          <t>CEU_FAC_16102020124712PFA</t>
         </is>
       </c>
       <c r="E2" s="18" t="inlineStr">

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6478A01-C022-45EB-8427-731B48179535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C7563E-95D4-469D-9022-C367C43D20C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Fields" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="771">
   <si>
     <t>rowid</t>
   </si>
@@ -3062,10 +3062,10 @@
   <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3111,7 @@
     <col min="56" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -3241,8 +3241,11 @@
       <c r="AQ1" s="57" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="58" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>43</v>
       </c>
@@ -3372,8 +3375,11 @@
       <c r="AQ2" s="59" t="s">
         <v>78</v>
       </c>
+      <c r="AR2" s="59" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="F3" s="60"/>
       <c r="L3" s="60"/>
@@ -3385,7 +3391,7 @@
       <c r="AF3" s="63"/>
       <c r="AH3" s="64"/>
     </row>
-    <row r="4" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
       <c r="F4" s="60"/>
       <c r="L4" s="60"/>
@@ -3397,7 +3403,7 @@
       <c r="AF4" s="63"/>
       <c r="AH4" s="64"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="P8" s="67"/>
       <c r="Q8" s="66"/>
     </row>
@@ -3416,9 +3422,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3430,7 +3438,7 @@
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3449,8 +3457,11 @@
       <c r="F1" s="3" t="s">
         <v>624</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -3468,6 +3479,9 @@
       </c>
       <c r="F2" s="1">
         <v>2</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3485,8 +3499,8 @@
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,6 +3693,9 @@
       <c r="AC1" s="13" t="s">
         <v>550</v>
       </c>
+      <c r="AD1" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AX1" s="36"/>
       <c r="AY1" s="36"/>
       <c r="AZ1" s="36"/>
@@ -3817,6 +3834,9 @@
       <c r="AC2" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="AD2" s="75" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3830,9 +3850,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AU2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3882,7 +3904,7 @@
     <col min="46" max="46" width="40.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -4021,8 +4043,11 @@
       <c r="AT1" s="25" t="s">
         <v>550</v>
       </c>
+      <c r="AU1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4179,11 @@
       <c r="AT2" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="AU2" s="75" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="N4" s="44"/>
     </row>
   </sheetData>
@@ -4170,11 +4198,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4218,7 +4246,7 @@
     <col min="38" max="38" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4333,8 +4361,11 @@
       <c r="AL1" s="3" t="s">
         <v>551</v>
       </c>
+      <c r="AM1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4443,8 +4474,11 @@
       <c r="AL2" s="1" t="s">
         <v>571</v>
       </c>
+      <c r="AM2" s="75" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C3" s="11"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4452,14 +4486,14 @@
       <c r="AC3" s="45"/>
       <c r="AH3" s="31"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="X4" s="27"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="X5" s="27"/>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
@@ -4549,7 +4583,7 @@
   <dimension ref="A1:EG29"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4947,7 +4981,7 @@
       <c r="AG2" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="AH2"/>
+      <c r="AH2" s="5"/>
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
@@ -5034,8 +5068,8 @@
   </sheetPr>
   <dimension ref="A1:EK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+    <sheetView topLeftCell="EC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EI1" sqref="EI1:EI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6022,11 +6056,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CI2"/>
+  <dimension ref="A1:CJ2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <pane xSplit="2" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ1" sqref="CJ1:CJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6115,7 +6149,7 @@
     <col min="87" max="87" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6377,8 +6411,11 @@
       <c r="CI1" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="CJ1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -6570,6 +6607,9 @@
       <c r="CI2" t="s">
         <v>435</v>
       </c>
+      <c r="CJ2" s="75" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6583,13 +6623,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6626,7 +6666,7 @@
     <col min="32" max="32" width="24.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6723,8 +6763,11 @@
       <c r="AF1" s="26" t="s">
         <v>462</v>
       </c>
+      <c r="AG1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -6808,6 +6851,9 @@
       </c>
       <c r="AF2" s="27" t="s">
         <v>472</v>
+      </c>
+      <c r="AG2" s="75" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6822,13 +6868,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6853,7 +6899,7 @@
     <col min="21" max="21" width="25.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6917,8 +6963,11 @@
       <c r="U1" s="3" t="s">
         <v>490</v>
       </c>
+      <c r="V1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -6981,6 +7030,9 @@
       </c>
       <c r="U2" s="1" t="s">
         <v>425</v>
+      </c>
+      <c r="V2" s="75" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6995,11 +7047,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,7 +7085,7 @@
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7115,8 +7167,11 @@
       <c r="AA1" s="7" t="s">
         <v>337</v>
       </c>
+      <c r="AB1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7195,8 +7250,11 @@
       <c r="AA2" s="1" t="s">
         <v>419</v>
       </c>
+      <c r="AB2" s="75" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="6"/>
@@ -7216,10 +7274,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7269,7 +7327,7 @@
     <col min="44" max="44" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -7402,8 +7460,11 @@
       <c r="AR1" s="3" t="s">
         <v>552</v>
       </c>
+      <c r="AS1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7536,8 +7597,11 @@
       <c r="AR2" s="1" t="s">
         <v>572</v>
       </c>
+      <c r="AS2" s="75" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AP5" s="33"/>
     </row>
   </sheetData>
@@ -7552,9 +7616,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7600,7 +7666,7 @@
     <col min="42" max="42" width="23.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7727,8 +7793,11 @@
       <c r="AP1" s="3" t="s">
         <v>489</v>
       </c>
+      <c r="AQ1" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7852,6 +7921,9 @@
       </c>
       <c r="AP2" s="1" t="s">
         <v>621</v>
+      </c>
+      <c r="AQ2" s="75" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="11" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="10" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users_Fields" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,11 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SYND02_PrimaryAllocation" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TLCAL01_CalendarLoad" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01_LoanDrawdown" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH06_PricingChangeTransaction" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DLCH01_DealChangeTransaction" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV18_Payments" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV21_InterestPayments" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DLCH01_DealChangeTransaction" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH06_PricingChangeTransaction" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV18_Payments" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV21_InterestPayments" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH04_DealChangeTransaction" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -802,8 +802,8 @@
     <col width="8.7109375" customWidth="1" style="61" min="42" max="42"/>
     <col width="11.28515625" customWidth="1" style="61" min="43" max="43"/>
     <col width="8.7109375" customWidth="1" style="61" min="44" max="45"/>
-    <col width="9.140625" customWidth="1" style="65" min="46" max="86"/>
-    <col width="9.140625" customWidth="1" style="65" min="87" max="16384"/>
+    <col width="9.140625" customWidth="1" style="65" min="46" max="87"/>
+    <col width="9.140625" customWidth="1" style="65" min="88" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="58">
@@ -1276,10 +1276,599 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="43.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="26.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="20.85546875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="6" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="28" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Financial_Ratio_Type</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Financial_Ratio</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>EVGLIQ_AMD_DLCH01 Deal Change Transaction</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>CBAEU_05062020150513UFJ</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>22-May-2020</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ICR</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="75" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AO5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK19" sqref="AK19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="39.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="27.140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="29.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="34.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="28.28515625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="26.7109375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="38" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
+    <col width="11" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="37.140625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="18.140625" customWidth="1" style="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col width="40.85546875" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
+    <col width="14.85546875" customWidth="1" style="1" min="15" max="15"/>
+    <col width="15.7109375" customWidth="1" style="1" min="16" max="16"/>
+    <col width="16.5703125" customWidth="1" style="1" min="17" max="17"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="1" min="18" max="18"/>
+    <col width="27" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
+    <col width="17.42578125" customWidth="1" style="1" min="20" max="20"/>
+    <col width="15.42578125" customWidth="1" style="1" min="21" max="21"/>
+    <col width="17.5703125" customWidth="1" style="1" min="22" max="22"/>
+    <col width="23" customWidth="1" style="1" min="23" max="23"/>
+    <col width="25.85546875" customWidth="1" style="1" min="24" max="24"/>
+    <col width="10.42578125" customWidth="1" style="1" min="25" max="25"/>
+    <col width="5.28515625" bestFit="1" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="1" min="27" max="27"/>
+    <col width="29.140625" customWidth="1" style="1" min="28" max="28"/>
+    <col width="18.85546875" customWidth="1" style="1" min="29" max="29"/>
+    <col width="16.28515625" customWidth="1" style="1" min="30" max="30"/>
+    <col width="18" bestFit="1" customWidth="1" style="1" min="31" max="31"/>
+    <col width="9.85546875" customWidth="1" style="1" min="32" max="32"/>
+    <col width="10.85546875" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13.28515625" customWidth="1" style="1" min="34" max="34"/>
+    <col width="32.85546875" bestFit="1" customWidth="1" style="1" min="35" max="35"/>
+    <col width="27.85546875" bestFit="1" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
+    <col width="29" customWidth="1" style="1" min="38" max="38"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="1" min="39" max="39"/>
+    <col width="14.7109375" customWidth="1" style="1" min="40" max="40"/>
+    <col width="6" bestFit="1" customWidth="1" style="1" min="41" max="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>ScheduleActivity_FromDate</t>
+        </is>
+      </c>
+      <c r="D1" s="13" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_ThruDate</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_Department</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_Branch</t>
+        </is>
+      </c>
+      <c r="G1" s="13" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_DealName</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_FeeAlias</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Borrower1_RTGSRemittanceDescription</t>
+        </is>
+      </c>
+      <c r="J1" s="13" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="K1" s="13" t="inlineStr">
+        <is>
+          <t>Borrower1_RTGSRemittanceInstruction</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="M1" s="13" t="inlineStr">
+        <is>
+          <t>Borrower1_ShortName</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Host_Bank</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ID</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Borrower_Profile</t>
+        </is>
+      </c>
+      <c r="R1" s="34" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="S1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="T1" s="34" t="inlineStr">
+        <is>
+          <t>Fee_Alias</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="inlineStr">
+        <is>
+          <t>Fee_Type1</t>
+        </is>
+      </c>
+      <c r="V1" s="34" t="inlineStr">
+        <is>
+          <t>Fee_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="W1" s="34" t="inlineStr">
+        <is>
+          <t>Fee_FloatRateStartDate</t>
+        </is>
+      </c>
+      <c r="X1" s="34" t="inlineStr">
+        <is>
+          <t>FeePayment_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="Y1" s="12" t="inlineStr">
+        <is>
+          <t>Fee_Cycle</t>
+        </is>
+      </c>
+      <c r="Z1" s="12" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="AA1" s="7" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>Computed_ProjectedCycleDue</t>
+        </is>
+      </c>
+      <c r="AC1" s="3" t="inlineStr">
+        <is>
+          <t>RequestedAmount1</t>
+        </is>
+      </c>
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>PrincipalAmount</t>
+        </is>
+      </c>
+      <c r="AE1" s="3" t="inlineStr">
+        <is>
+          <t>HostBankSharePct</t>
+        </is>
+      </c>
+      <c r="AF1" s="3" t="inlineStr">
+        <is>
+          <t>RateBasis</t>
+        </is>
+      </c>
+      <c r="AG1" s="3" t="inlineStr">
+        <is>
+          <t>RateBasis2</t>
+        </is>
+      </c>
+      <c r="AH1" s="3" t="inlineStr">
+        <is>
+          <t>CycleNumber</t>
+        </is>
+      </c>
+      <c r="AI1" s="3" t="inlineStr">
+        <is>
+          <t>ScheduledActivityReport_FeeType</t>
+        </is>
+      </c>
+      <c r="AJ1" s="3" t="inlineStr">
+        <is>
+          <t>Contact_Email</t>
+        </is>
+      </c>
+      <c r="AK1" s="3" t="inlineStr">
+        <is>
+          <t>NoticeMethod</t>
+        </is>
+      </c>
+      <c r="AL1" s="13" t="inlineStr">
+        <is>
+          <t>ScheduledActivityReport_Date</t>
+        </is>
+      </c>
+      <c r="AM1" s="3" t="inlineStr">
+        <is>
+          <t>Borrower_Contact</t>
+        </is>
+      </c>
+      <c r="AN1" s="3" t="inlineStr">
+        <is>
+          <t>NoticeStatus</t>
+        </is>
+      </c>
+      <c r="AO1" s="7" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>05-May-2020</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>04-Jul-2020</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>CBAEU_21102020200122YWC</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>IMT</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>60000005</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>IMTEUR1-1558</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>DOIT</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>SE LTD 0911917</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>CG852/Hold for Investment - Europe/BP_CML</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>CEU_FAC_21102020200827UFS</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>CBAEU_21102020200122YWC</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>ONG000000000213</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Commitment Fee</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>28-May-2020</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>28-May-2020</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>28-May-2020</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="75" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="AD2" s="45" t="inlineStr">
+        <is>
+          <t>90,000.00</t>
+        </is>
+      </c>
+      <c r="AE2" s="45" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>Actual/365</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>Actual/365</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>UNUT Fee Due</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>makee.campomanes@abc.com</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>04-Jun-2020</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>Makee Campomanes</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="AO2" s="75" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="11" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="AD3" s="45" t="n"/>
+      <c r="AE3" s="45" t="n"/>
+      <c r="AJ3" s="31" t="n"/>
+    </row>
+    <row r="4">
+      <c r="X4" s="27" t="n"/>
+      <c r="AB4" s="11" t="n"/>
+      <c r="AC4" s="11" t="n"/>
+      <c r="AD4" s="11" t="n"/>
+      <c r="AE4" s="11" t="n"/>
+    </row>
+    <row r="5">
+      <c r="X5" s="27" t="n"/>
+      <c r="AB5" s="11" t="n"/>
+      <c r="AC5" s="11" t="n"/>
+      <c r="AD5" s="11" t="n"/>
+      <c r="AE5" s="11" t="n"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1323,7 +1912,7 @@
     <col width="21" customWidth="1" style="1" min="38" max="39"/>
     <col width="22" customWidth="1" style="1" min="40" max="40"/>
     <col width="20.140625" customWidth="1" style="1" min="41" max="41"/>
-    <col width="23.42578125" customWidth="1" style="1" min="42" max="42"/>
+    <col width="26.7109375" bestFit="1" customWidth="1" style="1" min="42" max="42"/>
     <col width="6" bestFit="1" customWidth="1" style="1" min="43" max="43"/>
   </cols>
   <sheetData>
@@ -1698,7 +2287,7 @@
       </c>
       <c r="AF2" s="1" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="AG2" s="18" t="inlineStr">
@@ -1748,7 +2337,7 @@
       </c>
       <c r="AP2" s="1" t="inlineStr">
         <is>
-          <t>BBSY</t>
+          <t>(Base + Spread + RAC) * PCT</t>
         </is>
       </c>
       <c r="AQ2" s="75" t="inlineStr">
@@ -1764,109 +2353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="43.28515625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="15.28515625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="6" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="13" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="D1" s="28" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Financial_Ratio_Type</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Financial_Ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Entity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>EVGLIQ_AMD_DLCH01 Deal Change Transaction</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>CBAEU_05062020150513UFJ</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>22-May-2020</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>ICR</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="75" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2337,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2862,493 +3349,6 @@
     </row>
     <row r="9">
       <c r="AP9" s="96" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AO5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK19" sqref="AK19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="39.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="27.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="29.42578125" customWidth="1" style="1" min="5" max="5"/>
-    <col width="34.85546875" customWidth="1" style="1" min="6" max="6"/>
-    <col width="28.28515625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="26.7109375" customWidth="1" style="1" min="8" max="8"/>
-    <col width="38" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="11" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="37.140625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="18.140625" customWidth="1" style="1" min="12" max="12"/>
-    <col width="22" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
-    <col width="40.85546875" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
-    <col width="14.85546875" customWidth="1" style="1" min="15" max="15"/>
-    <col width="15.7109375" customWidth="1" style="1" min="16" max="16"/>
-    <col width="16.5703125" customWidth="1" style="1" min="17" max="17"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="1" min="18" max="18"/>
-    <col width="27" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
-    <col width="17.42578125" customWidth="1" style="1" min="20" max="20"/>
-    <col width="15.42578125" customWidth="1" style="1" min="21" max="21"/>
-    <col width="17.5703125" customWidth="1" style="1" min="22" max="22"/>
-    <col width="23" customWidth="1" style="1" min="23" max="23"/>
-    <col width="25.85546875" customWidth="1" style="1" min="24" max="24"/>
-    <col width="10.42578125" customWidth="1" style="1" min="25" max="25"/>
-    <col width="5.28515625" bestFit="1" customWidth="1" style="1" min="26" max="26"/>
-    <col width="9.140625" bestFit="1" customWidth="1" style="1" min="27" max="27"/>
-    <col width="29.140625" customWidth="1" style="1" min="28" max="28"/>
-    <col width="18.85546875" customWidth="1" style="1" min="29" max="29"/>
-    <col width="16.28515625" customWidth="1" style="1" min="30" max="30"/>
-    <col width="18" bestFit="1" customWidth="1" style="1" min="31" max="31"/>
-    <col width="9.85546875" customWidth="1" style="1" min="32" max="32"/>
-    <col width="10.85546875" customWidth="1" style="1" min="33" max="33"/>
-    <col width="13.28515625" customWidth="1" style="1" min="34" max="34"/>
-    <col width="32.85546875" bestFit="1" customWidth="1" style="1" min="35" max="35"/>
-    <col width="27.85546875" bestFit="1" customWidth="1" style="1" min="36" max="36"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="1" min="37" max="37"/>
-    <col width="29" customWidth="1" style="1" min="38" max="38"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" style="1" min="39" max="39"/>
-    <col width="14.7109375" customWidth="1" style="1" min="40" max="40"/>
-    <col width="6" bestFit="1" customWidth="1" style="1" min="41" max="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="13" t="inlineStr">
-        <is>
-          <t>ScheduleActivity_FromDate</t>
-        </is>
-      </c>
-      <c r="D1" s="13" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_ThruDate</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_Department</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_Branch</t>
-        </is>
-      </c>
-      <c r="G1" s="13" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_DealName</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_FeeAlias</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Borrower1_RTGSRemittanceDescription</t>
-        </is>
-      </c>
-      <c r="J1" s="13" t="inlineStr">
-        <is>
-          <t>Loan_Alias</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Borrower1_RTGSRemittanceInstruction</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>Remittance_Status</t>
-        </is>
-      </c>
-      <c r="M1" s="13" t="inlineStr">
-        <is>
-          <t>Borrower1_ShortName</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>Host_Bank</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>LIQCustomer_ID</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Borrower_Profile</t>
-        </is>
-      </c>
-      <c r="R1" s="34" t="inlineStr">
-        <is>
-          <t>Facility_Name</t>
-        </is>
-      </c>
-      <c r="S1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="T1" s="34" t="inlineStr">
-        <is>
-          <t>Fee_Alias</t>
-        </is>
-      </c>
-      <c r="U1" s="12" t="inlineStr">
-        <is>
-          <t>Fee_Type1</t>
-        </is>
-      </c>
-      <c r="V1" s="34" t="inlineStr">
-        <is>
-          <t>Fee_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="W1" s="34" t="inlineStr">
-        <is>
-          <t>Fee_FloatRateStartDate</t>
-        </is>
-      </c>
-      <c r="X1" s="34" t="inlineStr">
-        <is>
-          <t>FeePayment_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="Y1" s="12" t="inlineStr">
-        <is>
-          <t>Fee_Cycle</t>
-        </is>
-      </c>
-      <c r="Z1" s="12" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="AA1" s="7" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Computed_ProjectedCycleDue</t>
-        </is>
-      </c>
-      <c r="AC1" s="3" t="inlineStr">
-        <is>
-          <t>RequestedAmount1</t>
-        </is>
-      </c>
-      <c r="AD1" s="3" t="inlineStr">
-        <is>
-          <t>PrincipalAmount</t>
-        </is>
-      </c>
-      <c r="AE1" s="3" t="inlineStr">
-        <is>
-          <t>HostBankSharePct</t>
-        </is>
-      </c>
-      <c r="AF1" s="3" t="inlineStr">
-        <is>
-          <t>RateBasis</t>
-        </is>
-      </c>
-      <c r="AG1" s="3" t="inlineStr">
-        <is>
-          <t>RateBasis2</t>
-        </is>
-      </c>
-      <c r="AH1" s="3" t="inlineStr">
-        <is>
-          <t>CycleNumber</t>
-        </is>
-      </c>
-      <c r="AI1" s="3" t="inlineStr">
-        <is>
-          <t>ScheduledActivityReport_FeeType</t>
-        </is>
-      </c>
-      <c r="AJ1" s="3" t="inlineStr">
-        <is>
-          <t>Contact_Email</t>
-        </is>
-      </c>
-      <c r="AK1" s="3" t="inlineStr">
-        <is>
-          <t>NoticeMethod</t>
-        </is>
-      </c>
-      <c r="AL1" s="13" t="inlineStr">
-        <is>
-          <t>ScheduledActivityReport_Date</t>
-        </is>
-      </c>
-      <c r="AM1" s="3" t="inlineStr">
-        <is>
-          <t>Borrower_Contact</t>
-        </is>
-      </c>
-      <c r="AN1" s="3" t="inlineStr">
-        <is>
-          <t>NoticeStatus</t>
-        </is>
-      </c>
-      <c r="AO1" s="7" t="inlineStr">
-        <is>
-          <t>Entity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>05-May-2020</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>04-Jul-2020</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - Amsterdam</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>CBAEU_21102020200122YWC</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>IMT</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>60000005</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>IMTEUR1-1558</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>DOIT</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>SE LTD 0911917</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>CG852/Hold for Investment - Europe/BP_CML</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>Borrower</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>CEU_FAC_21102020200827UFS</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>CBAEU_21102020200122YWC</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>ONG000000000213</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>Commitment Fee</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>28-May-2020</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>28-May-2020</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>28-May-2020</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="75" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="AD2" s="45" t="inlineStr">
-        <is>
-          <t>90,000.00</t>
-        </is>
-      </c>
-      <c r="AE2" s="45" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>Actual/365</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
-        <is>
-          <t>Actual/365</t>
-        </is>
-      </c>
-      <c r="AH2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>UNUT Fee Due</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>makee.campomanes@abc.com</t>
-        </is>
-      </c>
-      <c r="AK2" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>04-Jun-2020</t>
-        </is>
-      </c>
-      <c r="AM2" s="1" t="inlineStr">
-        <is>
-          <t>Makee Campomanes</t>
-        </is>
-      </c>
-      <c r="AN2" s="1" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="AO2" s="75" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="11" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="AD3" s="45" t="n"/>
-      <c r="AE3" s="45" t="n"/>
-      <c r="AJ3" s="31" t="n"/>
-    </row>
-    <row r="4">
-      <c r="X4" s="27" t="n"/>
-      <c r="AB4" s="11" t="n"/>
-      <c r="AC4" s="11" t="n"/>
-      <c r="AD4" s="11" t="n"/>
-      <c r="AE4" s="11" t="n"/>
-    </row>
-    <row r="5">
-      <c r="X5" s="27" t="n"/>
-      <c r="AB5" s="11" t="n"/>
-      <c r="AC5" s="11" t="n"/>
-      <c r="AD5" s="11" t="n"/>
-      <c r="AE5" s="11" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB3622-0789-4039-A819-86F7DBF900A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB0D397-94AF-45FA-9339-48DCC3CE0026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Fields" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="783">
   <si>
     <t>rowid</t>
   </si>
@@ -4222,8 +4222,8 @@
   </sheetPr>
   <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7831,10 +7831,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7883,10 +7883,11 @@
     <col min="43" max="43" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="14.7109375" style="1" customWidth="1"/>
     <col min="45" max="45" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -8023,10 +8024,13 @@
         <v>625</v>
       </c>
       <c r="AT1" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -8163,10 +8167,13 @@
         <v>646</v>
       </c>
       <c r="AT2" s="75" t="s">
+        <v>782</v>
+      </c>
+      <c r="AU2" s="75" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AQ5" s="33"/>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEC680-BBED-44AE-8ED1-B6C41E856F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36BA0B7-A506-4869-9FA2-E5011E51D9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3090" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Fields" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="SERV21_InterestPayments" sheetId="12" r:id="rId12"/>
     <sheet name="SERV29_PaymentFees" sheetId="13" r:id="rId13"/>
     <sheet name="AMCH04_DealChangeTransaction" sheetId="14" r:id="rId14"/>
+    <sheet name="Calendar_Fields" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="786">
   <si>
     <t>rowid</t>
   </si>
@@ -2365,6 +2366,45 @@
   </si>
   <si>
     <t>Makee Campomanes</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_CAL_01</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_CAL01</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_CAL01</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_CAL01</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_CAL01</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_CAL01</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20201019_1.xlsx,Holidays_Banks_20201019_2.xlsx,Holidays_Banks_20201019_1.csv,Holidays_Banks_20201019_2.csv,Holidays_Misc_20201019.xlsx</t>
+  </si>
+  <si>
+    <t>TL_CAL_01</t>
+  </si>
+  <si>
+    <t>Actual_ResponseMechanism</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response</t>
+  </si>
+  <si>
+    <t>Expected_CustomCBAPush_Response</t>
+  </si>
+  <si>
+    <t>InputCoppClarkFiles</t>
+  </si>
+  <si>
+    <t>\DataSet\LoanIQ_DataSet\EU_Entity\TL_EU\SC1_TL_Cal_Files_EU\</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2595,6 +2635,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2602,7 +2653,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2744,6 +2795,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3074,50 +3146,50 @@
       <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="61" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="61" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="61" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="61" customWidth="1"/>
-    <col min="10" max="11" width="34.42578125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="61" customWidth="1"/>
+    <col min="10" max="11" width="34.44140625" style="61" customWidth="1"/>
     <col min="12" max="12" width="35" style="61" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" style="61" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" style="61" customWidth="1"/>
-    <col min="15" max="16" width="34.42578125" style="61" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="61" customWidth="1"/>
-    <col min="20" max="20" width="35.7109375" style="61" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="61" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="61" customWidth="1"/>
-    <col min="23" max="24" width="15.28515625" style="61" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" style="61" customWidth="1"/>
+    <col min="13" max="13" width="33.5546875" style="61" customWidth="1"/>
+    <col min="14" max="14" width="29.44140625" style="61" customWidth="1"/>
+    <col min="15" max="16" width="34.44140625" style="61" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" style="61" customWidth="1"/>
+    <col min="20" max="20" width="35.6640625" style="61" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="61" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="61" customWidth="1"/>
+    <col min="23" max="24" width="15.33203125" style="61" customWidth="1"/>
+    <col min="25" max="25" width="30.44140625" style="61" customWidth="1"/>
     <col min="26" max="26" width="13" style="61" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" style="61" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="61" customWidth="1"/>
-    <col min="29" max="29" width="34.7109375" style="61" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" style="61" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="61" customWidth="1"/>
+    <col min="29" max="29" width="34.6640625" style="61" customWidth="1"/>
     <col min="30" max="30" width="22" style="61" customWidth="1"/>
-    <col min="31" max="31" width="28.7109375" style="61" customWidth="1"/>
-    <col min="32" max="32" width="59.7109375" style="61" customWidth="1"/>
-    <col min="33" max="37" width="28.7109375" style="61" customWidth="1"/>
-    <col min="38" max="38" width="27.28515625" style="61" customWidth="1"/>
-    <col min="39" max="39" width="22.7109375" style="61" customWidth="1"/>
-    <col min="40" max="40" width="27.42578125" style="61" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" style="61" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" style="61" customWidth="1"/>
-    <col min="43" max="43" width="11.28515625" style="61" customWidth="1"/>
-    <col min="44" max="45" width="8.7109375" style="61" customWidth="1"/>
-    <col min="46" max="73" width="9.140625" style="65" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="65"/>
+    <col min="31" max="31" width="28.6640625" style="61" customWidth="1"/>
+    <col min="32" max="32" width="59.6640625" style="61" customWidth="1"/>
+    <col min="33" max="37" width="28.6640625" style="61" customWidth="1"/>
+    <col min="38" max="38" width="27.33203125" style="61" customWidth="1"/>
+    <col min="39" max="39" width="22.6640625" style="61" customWidth="1"/>
+    <col min="40" max="40" width="27.44140625" style="61" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" style="61" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" style="61" customWidth="1"/>
+    <col min="43" max="43" width="11.33203125" style="61" customWidth="1"/>
+    <col min="44" max="45" width="8.6640625" style="61" customWidth="1"/>
+    <col min="46" max="73" width="9.109375" style="65" customWidth="1"/>
+    <col min="74" max="16384" width="9.109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>43</v>
       </c>
@@ -3379,7 +3451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
       <c r="F3" s="60"/>
       <c r="L3" s="60"/>
@@ -3391,7 +3463,7 @@
       <c r="AF3" s="63"/>
       <c r="AH3" s="64"/>
     </row>
-    <row r="4" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="F4" s="60"/>
       <c r="L4" s="60"/>
@@ -3403,7 +3475,7 @@
       <c r="AF4" s="63"/>
       <c r="AH4" s="64"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="P8" s="67"/>
       <c r="Q8" s="66"/>
     </row>
@@ -3428,18 +3500,18 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -3499,114 +3571,114 @@
   </sheetPr>
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="38" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="20.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="20.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.88671875" style="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18" style="15" customWidth="1"/>
-    <col min="29" max="29" width="40.85546875" style="15" customWidth="1"/>
+    <col min="29" max="29" width="40.88671875" style="15" customWidth="1"/>
     <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="30.44140625" style="1" customWidth="1"/>
     <col min="32" max="32" width="36" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.42578125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="26.7109375" style="1" customWidth="1"/>
-    <col min="35" max="36" width="17.28515625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="34.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="28.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="24.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="30.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.5703125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="21.42578125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="24.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.44140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.6640625" style="1" customWidth="1"/>
+    <col min="35" max="36" width="17.33203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="28.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="24.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="30.33203125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5546875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.33203125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="12.109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.44140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="24.109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="16" style="1" customWidth="1"/>
     <col min="47" max="47" width="14" style="1" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="16.6640625" style="1" customWidth="1"/>
     <col min="49" max="49" width="10" style="1" customWidth="1"/>
-    <col min="50" max="50" width="8.5703125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="19.140625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="37.7109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.85546875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9.28515625" style="1" customWidth="1"/>
-    <col min="55" max="56" width="16.7109375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="12.85546875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="32.42578125" style="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="8.5546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="19.109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="37.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.88671875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9.33203125" style="1" customWidth="1"/>
+    <col min="55" max="56" width="16.6640625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="12.88671875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="32.44140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="11.6640625" style="1" customWidth="1"/>
     <col min="60" max="60" width="35" style="1" customWidth="1"/>
-    <col min="61" max="61" width="18.140625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="15.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="18.109375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="15.6640625" style="1" customWidth="1"/>
     <col min="63" max="63" width="24" style="1" customWidth="1"/>
-    <col min="64" max="64" width="11.5703125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="8.28515625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="16.5703125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="32.85546875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="18.7109375" style="1" customWidth="1"/>
-    <col min="69" max="69" width="18.28515625" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="9.7109375" style="1" customWidth="1"/>
-    <col min="72" max="72" width="12.7109375" style="1" customWidth="1"/>
-    <col min="73" max="73" width="11.7109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="11.5546875" style="1" customWidth="1"/>
+    <col min="65" max="65" width="8.33203125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="16.5546875" style="1" customWidth="1"/>
+    <col min="67" max="67" width="32.88671875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="18.6640625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="18.33203125" style="1" customWidth="1"/>
+    <col min="70" max="70" width="10.44140625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="9.6640625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="12.6640625" style="1" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" style="1" customWidth="1"/>
     <col min="74" max="74" width="24" style="1" customWidth="1"/>
-    <col min="75" max="75" width="43.7109375" style="1" customWidth="1"/>
-    <col min="76" max="76" width="44.85546875" style="1" customWidth="1"/>
-    <col min="77" max="77" width="30.140625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="29.42578125" style="1" customWidth="1"/>
-    <col min="79" max="79" width="25.28515625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5703125" style="1" customWidth="1"/>
-    <col min="81" max="81" width="25.7109375" style="1" customWidth="1"/>
-    <col min="82" max="82" width="19.7109375" style="1" customWidth="1"/>
-    <col min="83" max="83" width="28.5703125" style="1" customWidth="1"/>
-    <col min="84" max="84" width="21.140625" style="1" customWidth="1"/>
-    <col min="85" max="85" width="14.5703125" style="1" customWidth="1"/>
-    <col min="86" max="86" width="20.5703125" style="1" customWidth="1"/>
-    <col min="87" max="87" width="18.28515625" style="1" customWidth="1"/>
-    <col min="88" max="88" width="18.85546875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="43.6640625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="44.88671875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="30.109375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="29.44140625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="25.33203125" style="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5546875" style="1" customWidth="1"/>
+    <col min="81" max="81" width="25.6640625" style="1" customWidth="1"/>
+    <col min="82" max="82" width="19.6640625" style="1" customWidth="1"/>
+    <col min="83" max="83" width="28.5546875" style="1" customWidth="1"/>
+    <col min="84" max="84" width="21.109375" style="1" customWidth="1"/>
+    <col min="85" max="85" width="14.5546875" style="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5546875" style="1" customWidth="1"/>
+    <col min="87" max="87" width="18.33203125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="18.88671875" style="1" customWidth="1"/>
     <col min="89" max="89" width="35" style="1" customWidth="1"/>
     <col min="90" max="90" width="20" style="1" customWidth="1"/>
-    <col min="91" max="91" width="32.42578125" style="1" customWidth="1"/>
-    <col min="92" max="92" width="21.5703125" style="1" customWidth="1"/>
-    <col min="93" max="93" width="13.5703125" style="1" customWidth="1"/>
-    <col min="94" max="94" width="26.28515625" style="1" customWidth="1"/>
-    <col min="95" max="95" width="19.140625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="32.44140625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5546875" style="1" customWidth="1"/>
+    <col min="93" max="93" width="13.5546875" style="1" customWidth="1"/>
+    <col min="94" max="94" width="26.33203125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="19.109375" style="1" customWidth="1"/>
     <col min="96" max="96" width="44" style="1" customWidth="1"/>
-    <col min="97" max="97" width="23.5703125" style="1" customWidth="1"/>
-    <col min="98" max="98" width="26.28515625" style="1" customWidth="1"/>
-    <col min="99" max="99" width="34.85546875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="9.140625" style="1" customWidth="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" customWidth="1"/>
+    <col min="97" max="97" width="23.5546875" style="1" customWidth="1"/>
+    <col min="98" max="98" width="26.33203125" style="1" customWidth="1"/>
+    <col min="99" max="99" width="34.88671875" style="1" customWidth="1"/>
+    <col min="100" max="100" width="9.109375" style="1" customWidth="1"/>
+    <col min="101" max="101" width="15.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3822,7 @@
       <c r="CV1" s="36"/>
       <c r="CW1" s="36"/>
     </row>
-    <row r="2" spans="1:101" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -3857,56 +3929,56 @@
       <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="15" customWidth="1"/>
     <col min="3" max="3" width="27" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="15" customWidth="1"/>
     <col min="11" max="11" width="29" style="15" customWidth="1"/>
-    <col min="12" max="12" width="36.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="36.109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" style="15" customWidth="1"/>
     <col min="14" max="14" width="22" style="15" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="15" customWidth="1"/>
-    <col min="21" max="21" width="27.140625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="29.42578125" style="15" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="15" customWidth="1"/>
-    <col min="24" max="24" width="27.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="21.85546875" style="15" customWidth="1"/>
-    <col min="27" max="27" width="27.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" style="15" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="15" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="15" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="26.6640625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="27.109375" style="15" customWidth="1"/>
+    <col min="22" max="22" width="29.44140625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="27.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="21.88671875" style="15" customWidth="1"/>
+    <col min="27" max="27" width="27.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" style="15" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" style="15" customWidth="1"/>
     <col min="30" max="30" width="21" style="15" customWidth="1"/>
     <col min="31" max="31" width="28" style="15" customWidth="1"/>
-    <col min="32" max="32" width="18.42578125" style="15" customWidth="1"/>
-    <col min="33" max="33" width="36.5703125" style="15" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" style="15" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" style="15" customWidth="1"/>
-    <col min="36" max="36" width="22.140625" style="15" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" style="15" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" style="15" customWidth="1"/>
-    <col min="39" max="39" width="22.140625" style="15" customWidth="1"/>
-    <col min="40" max="40" width="31.5703125" style="15" customWidth="1"/>
+    <col min="32" max="32" width="18.44140625" style="15" customWidth="1"/>
+    <col min="33" max="33" width="36.5546875" style="15" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" style="15" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" style="15" customWidth="1"/>
+    <col min="36" max="36" width="22.109375" style="15" customWidth="1"/>
+    <col min="37" max="37" width="18.109375" style="15" customWidth="1"/>
+    <col min="38" max="38" width="14.88671875" style="15" customWidth="1"/>
+    <col min="39" max="39" width="22.109375" style="15" customWidth="1"/>
+    <col min="40" max="40" width="31.5546875" style="15" customWidth="1"/>
     <col min="41" max="41" width="38" style="1" customWidth="1"/>
-    <col min="42" max="42" width="30.5703125" style="15" customWidth="1"/>
-    <col min="43" max="44" width="20.5703125" style="15" customWidth="1"/>
+    <col min="42" max="42" width="30.5546875" style="15" customWidth="1"/>
+    <col min="43" max="44" width="20.5546875" style="15" customWidth="1"/>
     <col min="45" max="45" width="18" style="15" customWidth="1"/>
-    <col min="46" max="46" width="40.85546875" style="15" customWidth="1"/>
+    <col min="46" max="46" width="40.88671875" style="15" customWidth="1"/>
     <col min="47" max="47" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4121,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4185,7 +4257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="N4" s="44"/>
     </row>
   </sheetData>
@@ -4207,51 +4279,51 @@
       <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="23" style="1" customWidth="1"/>
-    <col min="24" max="24" width="25.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="1" customWidth="1"/>
     <col min="30" max="30" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" style="1" customWidth="1"/>
-    <col min="38" max="38" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.6640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4489,7 +4561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C3" s="11"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4497,14 +4569,14 @@
       <c r="AD3" s="45"/>
       <c r="AI3" s="31"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="X4" s="27"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="X5" s="27"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
@@ -4529,18 +4601,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4587,6 +4659,202 @@
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01818BBA-616F-4D39-B182-FBB51C0DC637}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AT5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="147" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="32" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="43" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="15" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" style="15" customWidth="1"/>
+    <col min="22" max="22" width="23" style="15" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="30.33203125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="22.88671875" style="15" customWidth="1"/>
+    <col min="28" max="28" width="26.88671875" style="15" customWidth="1"/>
+    <col min="29" max="29" width="21" style="15" customWidth="1"/>
+    <col min="30" max="30" width="28" style="15" customWidth="1"/>
+    <col min="31" max="31" width="21.44140625" style="15" customWidth="1"/>
+    <col min="32" max="32" width="32.33203125" style="15" customWidth="1"/>
+    <col min="33" max="33" width="36.5546875" style="15" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" style="15" customWidth="1"/>
+    <col min="35" max="35" width="24.33203125" style="15" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="15" customWidth="1"/>
+    <col min="37" max="37" width="22.109375" style="15" customWidth="1"/>
+    <col min="38" max="38" width="18.109375" style="15" customWidth="1"/>
+    <col min="39" max="39" width="14.88671875" style="15" customWidth="1"/>
+    <col min="40" max="40" width="22.88671875" style="15" customWidth="1"/>
+    <col min="41" max="42" width="20.5546875" style="15" customWidth="1"/>
+    <col min="43" max="43" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.6640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>784</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>783</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>782</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>785</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>779</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>777</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>776</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91" t="s">
+        <v>785</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>775</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>774</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>773</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="33"/>
+      <c r="AS5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_01_Files\" xr:uid="{6F4EEB42-4833-4B45-81C4-B85E39272E7E}"/>
+    <hyperlink ref="I2" r:id="rId2" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_01_Files\" xr:uid="{57B7E7FB-E0D8-47B4-82D1-8D20F202D01E}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -4604,144 +4872,144 @@
       <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.88671875" style="1" customWidth="1"/>
     <col min="39" max="39" width="28" style="1" customWidth="1"/>
     <col min="40" max="40" width="19" style="1" customWidth="1"/>
-    <col min="41" max="41" width="36.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="36.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="36.109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="36.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.5546875" style="1" customWidth="1"/>
     <col min="44" max="44" width="22" style="1" customWidth="1"/>
     <col min="45" max="45" width="21" style="1" customWidth="1"/>
-    <col min="46" max="46" width="36.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="36.6640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="20" style="1" customWidth="1"/>
     <col min="48" max="48" width="10" style="1" customWidth="1"/>
-    <col min="49" max="49" width="16.7109375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="13.7109375" style="1" customWidth="1"/>
-    <col min="52" max="52" width="15.7109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="16.7109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="18.28515625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="19.28515625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="18.140625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="19.140625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="27.140625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="22.28515625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="23.28515625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="24.28515625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="29.28515625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="16.6640625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="12.5546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="15.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="16.6640625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="18.33203125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="19.33203125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="18.109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="19.109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="27.109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="22.33203125" style="1" customWidth="1"/>
+    <col min="60" max="60" width="23.33203125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="24.33203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="29.33203125" style="1" customWidth="1"/>
     <col min="63" max="63" width="21" style="1" customWidth="1"/>
-    <col min="64" max="64" width="25.5703125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="21.7109375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" style="1" customWidth="1"/>
-    <col min="67" max="67" width="20.42578125" style="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5703125" style="1" customWidth="1"/>
-    <col min="69" max="69" width="15.5703125" style="1" customWidth="1"/>
-    <col min="70" max="70" width="33.5703125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="25.5546875" style="1" customWidth="1"/>
+    <col min="65" max="65" width="21.6640625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="20.44140625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="14.5546875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.5546875" style="1" customWidth="1"/>
+    <col min="70" max="70" width="33.5546875" style="1" customWidth="1"/>
     <col min="71" max="71" width="33" style="1" customWidth="1"/>
-    <col min="72" max="72" width="39.140625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="39.109375" style="1" customWidth="1"/>
     <col min="73" max="73" width="41" style="1" customWidth="1"/>
-    <col min="74" max="75" width="38.5703125" style="1" customWidth="1"/>
-    <col min="76" max="76" width="38.85546875" style="1" customWidth="1"/>
-    <col min="77" max="77" width="34.140625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="38.42578125" style="1" customWidth="1"/>
-    <col min="79" max="79" width="32.42578125" style="1" customWidth="1"/>
+    <col min="74" max="75" width="38.5546875" style="1" customWidth="1"/>
+    <col min="76" max="76" width="38.88671875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="34.109375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="38.44140625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="32.44140625" style="1" customWidth="1"/>
     <col min="80" max="80" width="40" style="1" customWidth="1"/>
     <col min="81" max="81" width="41" style="1" customWidth="1"/>
     <col min="82" max="82" width="38" style="1" customWidth="1"/>
-    <col min="83" max="83" width="18.140625" style="1" customWidth="1"/>
-    <col min="84" max="84" width="31.140625" style="1" customWidth="1"/>
-    <col min="85" max="86" width="39.28515625" style="1" customWidth="1"/>
-    <col min="87" max="87" width="33.42578125" style="1" customWidth="1"/>
-    <col min="88" max="88" width="46.42578125" style="1" customWidth="1"/>
-    <col min="89" max="89" width="43.85546875" style="1" customWidth="1"/>
-    <col min="90" max="90" width="48.85546875" style="1" customWidth="1"/>
-    <col min="91" max="91" width="34.85546875" style="1" customWidth="1"/>
+    <col min="83" max="83" width="18.109375" style="1" customWidth="1"/>
+    <col min="84" max="84" width="31.109375" style="1" customWidth="1"/>
+    <col min="85" max="86" width="39.33203125" style="1" customWidth="1"/>
+    <col min="87" max="87" width="33.44140625" style="1" customWidth="1"/>
+    <col min="88" max="88" width="46.44140625" style="1" customWidth="1"/>
+    <col min="89" max="89" width="43.88671875" style="1" customWidth="1"/>
+    <col min="90" max="90" width="48.88671875" style="1" customWidth="1"/>
+    <col min="91" max="91" width="34.88671875" style="1" customWidth="1"/>
     <col min="92" max="92" width="12" style="1" customWidth="1"/>
-    <col min="93" max="93" width="23.42578125" style="1" customWidth="1"/>
-    <col min="94" max="94" width="18.85546875" style="1" customWidth="1"/>
+    <col min="93" max="93" width="23.44140625" style="1" customWidth="1"/>
+    <col min="94" max="94" width="18.88671875" style="1" customWidth="1"/>
     <col min="95" max="95" width="20" style="1" customWidth="1"/>
     <col min="96" max="96" width="25" style="1" customWidth="1"/>
-    <col min="97" max="97" width="20.42578125" style="1" customWidth="1"/>
-    <col min="98" max="98" width="25.85546875" style="1" customWidth="1"/>
-    <col min="99" max="99" width="20.42578125" style="1" customWidth="1"/>
+    <col min="97" max="97" width="20.44140625" style="1" customWidth="1"/>
+    <col min="98" max="98" width="25.88671875" style="1" customWidth="1"/>
+    <col min="99" max="99" width="20.44140625" style="1" customWidth="1"/>
     <col min="100" max="100" width="25" style="1" customWidth="1"/>
-    <col min="101" max="101" width="20.42578125" style="1" customWidth="1"/>
-    <col min="102" max="102" width="20.85546875" style="1" customWidth="1"/>
-    <col min="103" max="104" width="21.140625" style="1" customWidth="1"/>
-    <col min="105" max="105" width="28.7109375" style="1" customWidth="1"/>
-    <col min="106" max="106" width="23.5703125" style="1" customWidth="1"/>
+    <col min="101" max="101" width="20.44140625" style="1" customWidth="1"/>
+    <col min="102" max="102" width="20.88671875" style="1" customWidth="1"/>
+    <col min="103" max="104" width="21.109375" style="1" customWidth="1"/>
+    <col min="105" max="105" width="28.6640625" style="1" customWidth="1"/>
+    <col min="106" max="106" width="23.5546875" style="1" customWidth="1"/>
     <col min="107" max="107" width="19" style="1" customWidth="1"/>
-    <col min="108" max="108" width="16.7109375" style="1" customWidth="1"/>
-    <col min="109" max="109" width="21.140625" style="1" customWidth="1"/>
-    <col min="110" max="110" width="12.140625" style="1" customWidth="1"/>
+    <col min="108" max="108" width="16.6640625" style="1" customWidth="1"/>
+    <col min="109" max="109" width="21.109375" style="1" customWidth="1"/>
+    <col min="110" max="110" width="12.109375" style="1" customWidth="1"/>
     <col min="111" max="111" width="16" style="1" customWidth="1"/>
-    <col min="112" max="112" width="20.42578125" style="1" customWidth="1"/>
+    <col min="112" max="112" width="20.44140625" style="1" customWidth="1"/>
     <col min="113" max="113" width="19" style="1" customWidth="1"/>
-    <col min="114" max="114" width="19.140625" style="1" customWidth="1"/>
+    <col min="114" max="114" width="19.109375" style="1" customWidth="1"/>
     <col min="115" max="115" width="19" style="1" customWidth="1"/>
-    <col min="116" max="116" width="14.85546875" style="1" customWidth="1"/>
-    <col min="117" max="117" width="19.28515625" style="1" customWidth="1"/>
-    <col min="118" max="118" width="19.7109375" style="1" customWidth="1"/>
-    <col min="119" max="119" width="19.42578125" style="1" customWidth="1"/>
-    <col min="120" max="120" width="31.140625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="14.88671875" style="1" customWidth="1"/>
+    <col min="117" max="117" width="19.33203125" style="1" customWidth="1"/>
+    <col min="118" max="118" width="19.6640625" style="1" customWidth="1"/>
+    <col min="119" max="119" width="19.44140625" style="1" customWidth="1"/>
+    <col min="120" max="120" width="31.109375" style="1" customWidth="1"/>
     <col min="121" max="121" width="29" style="1" customWidth="1"/>
-    <col min="122" max="122" width="28.140625" style="1" customWidth="1"/>
-    <col min="123" max="123" width="23.42578125" style="1" customWidth="1"/>
+    <col min="122" max="122" width="28.109375" style="1" customWidth="1"/>
+    <col min="123" max="123" width="23.44140625" style="1" customWidth="1"/>
     <col min="124" max="124" width="23" style="1" customWidth="1"/>
-    <col min="125" max="125" width="32.7109375" style="1" customWidth="1"/>
-    <col min="126" max="126" width="31.28515625" style="1" customWidth="1"/>
-    <col min="127" max="127" width="28.7109375" style="1" customWidth="1"/>
+    <col min="125" max="125" width="32.6640625" style="1" customWidth="1"/>
+    <col min="126" max="126" width="31.33203125" style="1" customWidth="1"/>
+    <col min="127" max="127" width="28.6640625" style="1" customWidth="1"/>
     <col min="128" max="128" width="26" style="1" customWidth="1"/>
-    <col min="129" max="129" width="26.42578125" style="1" customWidth="1"/>
-    <col min="130" max="130" width="22.85546875" style="1" customWidth="1"/>
-    <col min="131" max="131" width="20.28515625" style="1" customWidth="1"/>
-    <col min="132" max="132" width="35.7109375" style="1" customWidth="1"/>
-    <col min="133" max="133" width="34.28515625" style="1" customWidth="1"/>
-    <col min="134" max="134" width="31.7109375" style="1" customWidth="1"/>
+    <col min="129" max="129" width="26.44140625" style="1" customWidth="1"/>
+    <col min="130" max="130" width="22.88671875" style="1" customWidth="1"/>
+    <col min="131" max="131" width="20.33203125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="35.6640625" style="1" customWidth="1"/>
+    <col min="133" max="133" width="34.33203125" style="1" customWidth="1"/>
+    <col min="134" max="134" width="31.6640625" style="1" customWidth="1"/>
     <col min="135" max="135" width="22" style="1" customWidth="1"/>
-    <col min="136" max="136" width="35.42578125" style="1" customWidth="1"/>
+    <col min="136" max="136" width="35.44140625" style="1" customWidth="1"/>
     <col min="137" max="137" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
@@ -4901,7 +5169,7 @@
       <c r="CE1" s="81"/>
       <c r="CF1" s="81"/>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -5014,17 +5282,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="82" t="s">
         <v>145</v>
       </c>
@@ -5047,151 +5315,151 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="40.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="40.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="34.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="41.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="40.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="40.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="34.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="41.88671875" style="1" customWidth="1"/>
     <col min="22" max="22" width="43" style="1" customWidth="1"/>
-    <col min="23" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="41.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="41.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="21.88671875" style="1" customWidth="1"/>
     <col min="32" max="32" width="14" style="1" customWidth="1"/>
-    <col min="33" max="33" width="22.5703125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="27.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="27.6640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5546875" style="1" customWidth="1"/>
     <col min="38" max="38" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="16.88671875" style="1" customWidth="1"/>
     <col min="40" max="40" width="28" style="1" customWidth="1"/>
     <col min="41" max="41" width="19" style="1" customWidth="1"/>
-    <col min="42" max="42" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.7109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="18.5703125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="36.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5546875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="36.6640625" style="1" customWidth="1"/>
     <col min="48" max="48" width="20" style="1" customWidth="1"/>
     <col min="49" max="49" width="10" style="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" style="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="13.7109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.7109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="16.7109375" style="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="19.28515625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.140625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="13.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="16.6640625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="18.33203125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="19.33203125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="18.109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.109375" style="1" customWidth="1"/>
     <col min="59" max="59" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.140625" style="1" customWidth="1"/>
-    <col min="64" max="64" width="22.28515625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="23.28515625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="24.28515625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="29.28515625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="27.109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="22.33203125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="23.33203125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="24.33203125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="29.33203125" style="1" customWidth="1"/>
     <col min="68" max="68" width="21" style="1" customWidth="1"/>
-    <col min="69" max="69" width="25.5703125" style="1" customWidth="1"/>
-    <col min="70" max="70" width="21.7109375" style="1" customWidth="1"/>
-    <col min="71" max="71" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20.42578125" style="1" customWidth="1"/>
-    <col min="73" max="73" width="14.5703125" style="1" customWidth="1"/>
-    <col min="74" max="74" width="15.5703125" style="1" customWidth="1"/>
-    <col min="75" max="75" width="33.5703125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="25.5546875" style="1" customWidth="1"/>
+    <col min="70" max="70" width="21.6640625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.44140625" style="1" customWidth="1"/>
+    <col min="73" max="73" width="14.5546875" style="1" customWidth="1"/>
+    <col min="74" max="74" width="15.5546875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="33.5546875" style="1" customWidth="1"/>
     <col min="76" max="76" width="33" style="1" customWidth="1"/>
-    <col min="77" max="77" width="39.140625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="39.109375" style="1" customWidth="1"/>
     <col min="78" max="78" width="41" style="1" customWidth="1"/>
-    <col min="79" max="80" width="38.5703125" style="1" customWidth="1"/>
-    <col min="81" max="81" width="38.85546875" style="1" customWidth="1"/>
-    <col min="82" max="82" width="34.140625" style="1" customWidth="1"/>
-    <col min="83" max="83" width="38.42578125" style="1" customWidth="1"/>
-    <col min="84" max="84" width="32.42578125" style="1" customWidth="1"/>
+    <col min="79" max="80" width="38.5546875" style="1" customWidth="1"/>
+    <col min="81" max="81" width="38.88671875" style="1" customWidth="1"/>
+    <col min="82" max="82" width="34.109375" style="1" customWidth="1"/>
+    <col min="83" max="83" width="38.44140625" style="1" customWidth="1"/>
+    <col min="84" max="84" width="32.44140625" style="1" customWidth="1"/>
     <col min="85" max="85" width="40" style="1" customWidth="1"/>
     <col min="86" max="86" width="41" style="1" customWidth="1"/>
     <col min="87" max="87" width="38" style="1" customWidth="1"/>
-    <col min="88" max="88" width="18.140625" style="1" customWidth="1"/>
-    <col min="89" max="89" width="31.140625" style="1" customWidth="1"/>
-    <col min="90" max="91" width="39.28515625" style="1" customWidth="1"/>
-    <col min="92" max="92" width="33.42578125" style="1" customWidth="1"/>
-    <col min="93" max="93" width="46.42578125" style="1" customWidth="1"/>
-    <col min="94" max="94" width="43.85546875" style="1" customWidth="1"/>
-    <col min="95" max="95" width="48.85546875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="34.85546875" style="1" customWidth="1"/>
+    <col min="88" max="88" width="18.109375" style="1" customWidth="1"/>
+    <col min="89" max="89" width="31.109375" style="1" customWidth="1"/>
+    <col min="90" max="91" width="39.33203125" style="1" customWidth="1"/>
+    <col min="92" max="92" width="33.44140625" style="1" customWidth="1"/>
+    <col min="93" max="93" width="46.44140625" style="1" customWidth="1"/>
+    <col min="94" max="94" width="43.88671875" style="1" customWidth="1"/>
+    <col min="95" max="95" width="48.88671875" style="1" customWidth="1"/>
+    <col min="96" max="96" width="34.88671875" style="1" customWidth="1"/>
     <col min="97" max="97" width="12" style="1" customWidth="1"/>
-    <col min="98" max="98" width="23.42578125" style="1" customWidth="1"/>
-    <col min="99" max="99" width="18.85546875" style="1" customWidth="1"/>
+    <col min="98" max="98" width="23.44140625" style="1" customWidth="1"/>
+    <col min="99" max="99" width="18.88671875" style="1" customWidth="1"/>
     <col min="100" max="100" width="20" style="1" customWidth="1"/>
     <col min="101" max="101" width="25" style="1" customWidth="1"/>
-    <col min="102" max="102" width="20.42578125" style="1" customWidth="1"/>
-    <col min="103" max="103" width="25.85546875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="20.42578125" style="1" customWidth="1"/>
+    <col min="102" max="102" width="20.44140625" style="1" customWidth="1"/>
+    <col min="103" max="103" width="25.88671875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="20.44140625" style="1" customWidth="1"/>
     <col min="105" max="105" width="25" style="1" customWidth="1"/>
-    <col min="106" max="106" width="20.42578125" style="1" customWidth="1"/>
-    <col min="107" max="107" width="20.85546875" style="1" customWidth="1"/>
-    <col min="108" max="109" width="21.140625" style="1" customWidth="1"/>
-    <col min="110" max="110" width="28.7109375" style="1" customWidth="1"/>
-    <col min="111" max="111" width="23.5703125" style="1" customWidth="1"/>
+    <col min="106" max="106" width="20.44140625" style="1" customWidth="1"/>
+    <col min="107" max="107" width="20.88671875" style="1" customWidth="1"/>
+    <col min="108" max="109" width="21.109375" style="1" customWidth="1"/>
+    <col min="110" max="110" width="28.6640625" style="1" customWidth="1"/>
+    <col min="111" max="111" width="23.5546875" style="1" customWidth="1"/>
     <col min="112" max="112" width="19" style="1" customWidth="1"/>
-    <col min="113" max="113" width="16.7109375" style="1" customWidth="1"/>
-    <col min="114" max="114" width="21.140625" style="1" customWidth="1"/>
-    <col min="115" max="115" width="12.140625" style="1" customWidth="1"/>
+    <col min="113" max="113" width="16.6640625" style="1" customWidth="1"/>
+    <col min="114" max="114" width="21.109375" style="1" customWidth="1"/>
+    <col min="115" max="115" width="12.109375" style="1" customWidth="1"/>
     <col min="116" max="116" width="16" style="1" customWidth="1"/>
-    <col min="117" max="117" width="20.42578125" style="1" customWidth="1"/>
+    <col min="117" max="117" width="20.44140625" style="1" customWidth="1"/>
     <col min="118" max="118" width="19" style="1" customWidth="1"/>
-    <col min="119" max="119" width="19.140625" style="1" customWidth="1"/>
+    <col min="119" max="119" width="19.109375" style="1" customWidth="1"/>
     <col min="120" max="120" width="19" style="1" customWidth="1"/>
-    <col min="121" max="121" width="14.85546875" style="1" customWidth="1"/>
-    <col min="122" max="122" width="19.28515625" style="1" customWidth="1"/>
-    <col min="123" max="123" width="19.7109375" style="1" customWidth="1"/>
-    <col min="124" max="124" width="19.42578125" style="1" customWidth="1"/>
-    <col min="125" max="125" width="31.140625" style="1" customWidth="1"/>
+    <col min="121" max="121" width="14.88671875" style="1" customWidth="1"/>
+    <col min="122" max="122" width="19.33203125" style="1" customWidth="1"/>
+    <col min="123" max="123" width="19.6640625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="19.44140625" style="1" customWidth="1"/>
+    <col min="125" max="125" width="31.109375" style="1" customWidth="1"/>
     <col min="126" max="126" width="29" style="1" customWidth="1"/>
-    <col min="127" max="127" width="28.140625" style="1" customWidth="1"/>
-    <col min="128" max="128" width="23.42578125" style="1" customWidth="1"/>
+    <col min="127" max="127" width="28.109375" style="1" customWidth="1"/>
+    <col min="128" max="128" width="23.44140625" style="1" customWidth="1"/>
     <col min="129" max="129" width="23" style="1" customWidth="1"/>
-    <col min="130" max="130" width="32.7109375" style="1" customWidth="1"/>
-    <col min="131" max="131" width="31.28515625" style="1" customWidth="1"/>
-    <col min="132" max="132" width="28.7109375" style="1" customWidth="1"/>
+    <col min="130" max="130" width="32.6640625" style="1" customWidth="1"/>
+    <col min="131" max="131" width="31.33203125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="28.6640625" style="1" customWidth="1"/>
     <col min="133" max="133" width="26" style="1" customWidth="1"/>
-    <col min="134" max="134" width="26.42578125" style="1" customWidth="1"/>
-    <col min="135" max="135" width="22.85546875" style="1" customWidth="1"/>
-    <col min="136" max="136" width="20.28515625" style="1" customWidth="1"/>
-    <col min="137" max="137" width="35.7109375" style="1" customWidth="1"/>
-    <col min="138" max="138" width="34.28515625" style="1" customWidth="1"/>
-    <col min="139" max="139" width="31.7109375" style="1" customWidth="1"/>
+    <col min="134" max="134" width="26.44140625" style="1" customWidth="1"/>
+    <col min="135" max="135" width="22.88671875" style="1" customWidth="1"/>
+    <col min="136" max="136" width="20.33203125" style="1" customWidth="1"/>
+    <col min="137" max="137" width="35.6640625" style="1" customWidth="1"/>
+    <col min="138" max="138" width="34.33203125" style="1" customWidth="1"/>
+    <col min="139" max="139" width="31.6640625" style="1" customWidth="1"/>
     <col min="140" max="140" width="22" style="1" customWidth="1"/>
-    <col min="141" max="141" width="35.42578125" style="1" customWidth="1"/>
+    <col min="141" max="141" width="35.44140625" style="1" customWidth="1"/>
     <col min="142" max="142" width="28" style="1" customWidth="1"/>
     <col min="143" max="143" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:145" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5625,7 +5893,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:145" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:145" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>43</v>
       </c>
@@ -6044,7 +6312,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:145" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:145" x14ac:dyDescent="0.25">
       <c r="BH9" s="1" t="s">
         <v>385</v>
       </c>
@@ -6071,96 +6339,96 @@
       <selection pane="topRight" activeCell="CJ1" sqref="CJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="22" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="26.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="26.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="25.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="27.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.88671875" style="1" customWidth="1"/>
     <col min="28" max="28" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="32" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="19.28515625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.42578125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="19.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="24.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.44140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="19.33203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.44140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.88671875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="24.6640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="25" style="1" customWidth="1"/>
-    <col min="41" max="41" width="24.42578125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="20.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="24.44140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.33203125" style="1" customWidth="1"/>
     <col min="43" max="43" width="36" style="1" customWidth="1"/>
-    <col min="44" max="44" width="34.42578125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="26.7109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="17.28515625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="35.140625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="29.42578125" style="1" customWidth="1"/>
-    <col min="49" max="49" width="25.85546875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="31.28515625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="17.5703125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="20.28515625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" style="1" customWidth="1"/>
-    <col min="54" max="54" width="24.140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="34.44140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="26.6640625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="17.33203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="35.109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="29.44140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="25.88671875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="31.33203125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="17.5546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="20.33203125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.44140625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="24.109375" style="1" customWidth="1"/>
     <col min="55" max="55" width="14" style="1" customWidth="1"/>
-    <col min="56" max="56" width="16.7109375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.140625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="15.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="16.6640625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" style="1" customWidth="1"/>
     <col min="60" max="60" width="24" style="1" customWidth="1"/>
-    <col min="61" max="61" width="11.5703125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="8.28515625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="16.5703125" style="1" customWidth="1"/>
-    <col min="64" max="64" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.7109375" style="14" customWidth="1"/>
-    <col min="66" max="66" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="30.140625" style="1" customWidth="1"/>
-    <col min="71" max="71" width="29.42578125" style="15" customWidth="1"/>
-    <col min="72" max="72" width="25.28515625" style="1" customWidth="1"/>
-    <col min="73" max="73" width="9.5703125" style="14" customWidth="1"/>
-    <col min="74" max="74" width="25.7109375" style="14" customWidth="1"/>
-    <col min="75" max="75" width="19.7109375" style="1" customWidth="1"/>
-    <col min="76" max="76" width="28.5703125" style="14" customWidth="1"/>
-    <col min="77" max="77" width="21.140625" style="14" customWidth="1"/>
-    <col min="78" max="78" width="14.5703125" style="14" customWidth="1"/>
-    <col min="79" max="79" width="20.5703125" style="14" customWidth="1"/>
-    <col min="80" max="80" width="24.42578125" style="14" customWidth="1"/>
-    <col min="81" max="81" width="18.28515625" style="14" customWidth="1"/>
-    <col min="82" max="82" width="18.85546875" style="14" customWidth="1"/>
-    <col min="83" max="83" width="26.28515625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5546875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="8.33203125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="16.5546875" style="1" customWidth="1"/>
+    <col min="64" max="64" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.6640625" style="14" customWidth="1"/>
+    <col min="66" max="66" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="30.109375" style="1" customWidth="1"/>
+    <col min="71" max="71" width="29.44140625" style="15" customWidth="1"/>
+    <col min="72" max="72" width="25.33203125" style="1" customWidth="1"/>
+    <col min="73" max="73" width="9.5546875" style="14" customWidth="1"/>
+    <col min="74" max="74" width="25.6640625" style="14" customWidth="1"/>
+    <col min="75" max="75" width="19.6640625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="28.5546875" style="14" customWidth="1"/>
+    <col min="77" max="77" width="21.109375" style="14" customWidth="1"/>
+    <col min="78" max="78" width="14.5546875" style="14" customWidth="1"/>
+    <col min="79" max="79" width="20.5546875" style="14" customWidth="1"/>
+    <col min="80" max="80" width="24.44140625" style="14" customWidth="1"/>
+    <col min="81" max="81" width="18.33203125" style="14" customWidth="1"/>
+    <col min="82" max="82" width="18.88671875" style="14" customWidth="1"/>
+    <col min="83" max="83" width="26.33203125" style="1" customWidth="1"/>
     <col min="84" max="84" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6426,7 +6694,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -6643,42 +6911,42 @@
       <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5546875" style="1" customWidth="1"/>
     <col min="24" max="25" width="18" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="25.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="24.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="24.44140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6779,7 +7047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>43</v>
       </c>
@@ -6889,31 +7157,31 @@
       <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6981,7 +7249,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7068,39 +7336,39 @@
       <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="14" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7186,7 +7454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7269,7 +7537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="L3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="6"/>
@@ -7295,56 +7563,56 @@
       <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="15" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="15" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" style="15" customWidth="1"/>
+    <col min="21" max="21" width="24.109375" style="15" customWidth="1"/>
     <col min="22" max="22" width="23" style="15" customWidth="1"/>
-    <col min="23" max="23" width="20.5703125" style="15" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" style="15" customWidth="1"/>
-    <col min="25" max="25" width="30.28515625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" style="15" customWidth="1"/>
-    <col min="27" max="27" width="22.85546875" style="15" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" style="15" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="30.33203125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="22.88671875" style="15" customWidth="1"/>
+    <col min="28" max="28" width="26.88671875" style="15" customWidth="1"/>
     <col min="29" max="29" width="21" style="15" customWidth="1"/>
     <col min="30" max="30" width="28" style="15" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" style="15" customWidth="1"/>
-    <col min="32" max="32" width="32.28515625" style="15" customWidth="1"/>
-    <col min="33" max="33" width="36.5703125" style="15" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" style="15" customWidth="1"/>
-    <col min="35" max="35" width="24.28515625" style="15" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="15" customWidth="1"/>
-    <col min="37" max="37" width="22.140625" style="15" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" style="15" customWidth="1"/>
-    <col min="39" max="39" width="14.85546875" style="15" customWidth="1"/>
-    <col min="40" max="40" width="22.85546875" style="15" customWidth="1"/>
-    <col min="41" max="42" width="20.5703125" style="15" customWidth="1"/>
-    <col min="43" max="43" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.44140625" style="15" customWidth="1"/>
+    <col min="32" max="32" width="32.33203125" style="15" customWidth="1"/>
+    <col min="33" max="33" width="36.5546875" style="15" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" style="15" customWidth="1"/>
+    <col min="35" max="35" width="24.33203125" style="15" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="15" customWidth="1"/>
+    <col min="37" max="37" width="22.109375" style="15" customWidth="1"/>
+    <col min="38" max="38" width="18.109375" style="15" customWidth="1"/>
+    <col min="39" max="39" width="14.88671875" style="15" customWidth="1"/>
+    <col min="40" max="40" width="22.88671875" style="15" customWidth="1"/>
+    <col min="41" max="42" width="20.5546875" style="15" customWidth="1"/>
+    <col min="43" max="43" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.6640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -7484,7 +7752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -7624,7 +7892,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="AQ5" s="33"/>
     </row>
   </sheetData>
@@ -7645,52 +7913,52 @@
       <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="20.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" customWidth="1"/>
     <col min="18" max="18" width="54" style="1" customWidth="1"/>
-    <col min="19" max="19" width="32.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="32.44140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="54" style="1" customWidth="1"/>
     <col min="21" max="21" width="39" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="47" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="32.109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.88671875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="54" style="1" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="28.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="17.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="28.44140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.44140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="21.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.88671875" style="1" customWidth="1"/>
     <col min="38" max="39" width="21" style="1" customWidth="1"/>
     <col min="40" max="40" width="22" style="1" customWidth="1"/>
-    <col min="41" max="41" width="20.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="20.109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.44140625" style="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7821,7 +8089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ01_EU_BaselineBilateralCustomer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="11" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="11" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users_Fields" sheetId="1" state="visible" r:id="rId1"/>
@@ -864,8 +864,8 @@
     <col width="8.7109375" customWidth="1" style="18" min="42" max="42"/>
     <col width="11.28515625" customWidth="1" style="18" min="43" max="43"/>
     <col width="8.7109375" customWidth="1" style="18" min="44" max="45"/>
-    <col width="9.140625" customWidth="1" style="22" min="46" max="133"/>
-    <col width="9.140625" customWidth="1" style="22" min="134" max="16384"/>
+    <col width="9.140625" customWidth="1" style="22" min="46" max="140"/>
+    <col width="9.140625" customWidth="1" style="22" min="141" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="15">
@@ -1341,8 +1341,8 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1378,8 +1378,8 @@
     <col width="17.5703125" customWidth="1" style="89" min="29" max="29"/>
     <col width="23" customWidth="1" style="89" min="30" max="30"/>
     <col width="6" bestFit="1" customWidth="1" style="89" min="31" max="31"/>
-    <col width="9.140625" customWidth="1" style="31" min="32" max="71"/>
-    <col width="9.140625" customWidth="1" style="31" min="72" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="32" max="78"/>
+    <col width="9.140625" customWidth="1" style="31" min="79" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="45">
@@ -1552,12 +1552,12 @@
       </c>
       <c r="C2" s="89" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="89" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="E2" s="89" t="inlineStr">
@@ -1575,22 +1575,22 @@
       </c>
       <c r="H2" s="89" t="inlineStr">
         <is>
-          <t>11-Oct-2020</t>
+          <t>17-Oct-2020</t>
         </is>
       </c>
       <c r="I2" s="71" t="inlineStr">
         <is>
-          <t>10-Dec-2020</t>
+          <t>16-Dec-2020</t>
         </is>
       </c>
       <c r="J2" s="89" t="inlineStr">
         <is>
-          <t>10-Nov-2020</t>
+          <t>16-Nov-2020</t>
         </is>
       </c>
       <c r="K2" s="89" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="L2" s="72" t="inlineStr">
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="R2" s="89" t="n">
-        <v>69.04000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="S2" s="89" t="inlineStr">
         <is>
-          <t>SE LTD 0815714</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="T2" s="89" t="inlineStr">
         <is>
-          <t>IMTEUR1-2600</t>
+          <t>IMTEUR1-3242</t>
         </is>
       </c>
       <c r="U2" s="88" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="X2" s="89" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="Y2" s="89" t="inlineStr">
@@ -1661,9 +1661,9 @@
           <t>IMT</t>
         </is>
       </c>
-      <c r="Z2" s="89" t="inlineStr">
-        <is>
-          <t>60000005</t>
+      <c r="Z2" s="46" t="inlineStr">
+        <is>
+          <t>60001111</t>
         </is>
       </c>
       <c r="AA2" s="89" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="AC2" s="89" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="AD2" s="89" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="AE2" s="88" t="inlineStr">
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="33.28515625" defaultRowHeight="12.75"/>
@@ -1780,8 +1780,8 @@
     <col width="14.140625" bestFit="1" customWidth="1" style="89" min="17" max="17"/>
     <col width="32.140625" bestFit="1" customWidth="1" style="89" min="18" max="18"/>
     <col width="6" bestFit="1" customWidth="1" style="89" min="19" max="19"/>
-    <col width="33.28515625" customWidth="1" style="31" min="20" max="59"/>
-    <col width="33.28515625" customWidth="1" style="31" min="60" max="16384"/>
+    <col width="33.28515625" customWidth="1" style="31" min="20" max="66"/>
+    <col width="33.28515625" customWidth="1" style="31" min="67" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="45">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="E2" s="46" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="H2" s="46" t="inlineStr">
@@ -2019,10 +2019,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2057,8 +2057,8 @@
     <col width="27.85546875" bestFit="1" customWidth="1" style="34" min="28" max="29"/>
     <col width="29.42578125" customWidth="1" style="34" min="30" max="30"/>
     <col width="6" bestFit="1" customWidth="1" style="89" min="31" max="31"/>
-    <col width="9.140625" customWidth="1" style="31" min="32" max="71"/>
-    <col width="9.140625" customWidth="1" style="31" min="72" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="32" max="78"/>
+    <col width="9.140625" customWidth="1" style="31" min="79" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="45">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>CBAEU_28102020182441XPY</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr">
@@ -2241,15 +2241,17 @@
       </c>
       <c r="E2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_28102020183354WXB</t>
-        </is>
-      </c>
-      <c r="F2" s="46" t="n">
-        <v>60000552</v>
+          <t>CEU_FAC_18112020161637RKP</t>
+        </is>
+      </c>
+      <c r="F2" s="46" t="inlineStr">
+        <is>
+          <t>60001111</t>
+        </is>
       </c>
       <c r="G2" s="51" t="inlineStr">
         <is>
-          <t>07-Oct-2020</t>
+          <t>09-Dec-2020</t>
         </is>
       </c>
       <c r="H2" s="46" t="inlineStr">
@@ -2274,7 +2276,7 @@
       </c>
       <c r="L2" s="46" t="inlineStr">
         <is>
-          <t>135.89</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="M2" s="46" t="inlineStr">
@@ -2284,12 +2286,12 @@
       </c>
       <c r="N2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 1611306</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="O2" s="46" t="inlineStr">
         <is>
-          <t>IMTEUR1-2905</t>
+          <t>IMTEUR1-3242</t>
         </is>
       </c>
       <c r="P2" s="46" t="inlineStr">
@@ -2332,7 +2334,7 @@
       </c>
       <c r="X2" s="46" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1611306</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="Y2" s="46" t="inlineStr">
@@ -2342,12 +2344,12 @@
       </c>
       <c r="Z2" s="46" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1611306</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="AA2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 1611306</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="AB2" s="46" t="inlineStr">
@@ -2362,7 +2364,7 @@
       </c>
       <c r="AD2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="AE2" s="56" t="inlineStr">
@@ -2371,174 +2373,29 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="89">
-      <c r="A3" s="46" t="n"/>
-      <c r="B3" s="46" t="n"/>
-      <c r="C3" s="46" t="inlineStr">
-        <is>
-          <t>CBAEU_04112020150107XXL</t>
-        </is>
-      </c>
-      <c r="D3" s="46" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="E3" s="46" t="inlineStr">
-        <is>
-          <t>CEU_FAC_04112020150959IRK</t>
-        </is>
-      </c>
-      <c r="F3" s="46" t="n">
-        <v>60000743</v>
-      </c>
-      <c r="G3" s="46" t="inlineStr">
-        <is>
-          <t>03-Dec-2020</t>
-        </is>
-      </c>
-      <c r="H3" s="46" t="inlineStr">
-        <is>
-          <t>14-May-2018</t>
-        </is>
-      </c>
-      <c r="I3" s="46" t="inlineStr">
-        <is>
-          <t>14-May-2021</t>
-        </is>
-      </c>
-      <c r="J3" s="46" t="inlineStr">
-        <is>
-          <t>FIXED Interest Due</t>
-        </is>
-      </c>
-      <c r="K3" s="46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" s="46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M3" s="46" t="inlineStr">
-        <is>
-          <t>Projected Due</t>
-        </is>
-      </c>
-      <c r="N3" s="46" t="inlineStr">
-        <is>
-          <t>SE LTD 0815714</t>
-        </is>
-      </c>
-      <c r="O3" s="46" t="inlineStr">
-        <is>
-          <t>IMTEUR1-2600</t>
-        </is>
-      </c>
-      <c r="P3" s="46" t="inlineStr">
-        <is>
-          <t>IMT</t>
-        </is>
-      </c>
-      <c r="Q3" s="46" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="R3" s="87" t="n">
-        <v>100</v>
-      </c>
-      <c r="S3" s="46" t="inlineStr">
-        <is>
-          <t>CG852/Hold for Investment - Europe/BP_CML</t>
-        </is>
-      </c>
-      <c r="T3" s="46" t="inlineStr">
-        <is>
-          <t>Payments</t>
-        </is>
-      </c>
-      <c r="U3" s="46" t="inlineStr">
-        <is>
-          <t>Awaiting Approval</t>
-        </is>
-      </c>
-      <c r="V3" s="46" t="inlineStr">
-        <is>
-          <t>Interest Payment</t>
-        </is>
-      </c>
-      <c r="W3" s="56" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="X3" s="46" t="inlineStr">
-        <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
-        </is>
-      </c>
-      <c r="Y3" s="46" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="Z3" s="46" t="inlineStr">
-        <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
-        </is>
-      </c>
-      <c r="AA3" s="46" t="inlineStr">
-        <is>
-          <t>SE LTD 0815714</t>
-        </is>
-      </c>
-      <c r="AB3" s="46" t="inlineStr">
-        <is>
-          <t>makee.campomanes@abc.com</t>
-        </is>
-      </c>
-      <c r="AC3" s="46" t="inlineStr">
-        <is>
-          <t>makee.campomanes@abc.com</t>
-        </is>
-      </c>
-      <c r="AD3" s="46" t="inlineStr">
-        <is>
-          <t>03-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AE3" s="56" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="89" t="inlineStr">
+    <row r="21">
+      <c r="B21" s="89" t="inlineStr">
         <is>
           <t>Columns available</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="52" t="inlineStr">
+    <row r="22">
+      <c r="B22" s="52" t="inlineStr">
         <is>
           <t>Manual Input</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="53" t="inlineStr">
+    <row r="23">
+      <c r="B23" s="53" t="inlineStr">
         <is>
           <t>Auto generated</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="54" t="inlineStr">
+    <row r="24">
+      <c r="B24" s="54" t="inlineStr">
         <is>
           <t>Unused Column</t>
         </is>
@@ -2557,11 +2414,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP23"/>
+  <dimension ref="A1:CP24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K34" sqref="K34"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2658,8 +2515,8 @@
     <col width="34.85546875" customWidth="1" style="89" min="92" max="92"/>
     <col width="9.140625" customWidth="1" style="89" min="93" max="93"/>
     <col width="15.85546875" customWidth="1" style="89" min="94" max="94"/>
-    <col width="9.140625" customWidth="1" style="31" min="95" max="134"/>
-    <col width="9.140625" customWidth="1" style="31" min="135" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="95" max="141"/>
+    <col width="9.140625" customWidth="1" style="31" min="142" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="45">
@@ -2844,17 +2701,17 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>CBAEU_28102020182441XPY</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_28102020183354WXB</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="E2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 1611306</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="F2" s="47" t="inlineStr">
@@ -2867,8 +2724,10 @@
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="H2" s="46" t="n">
-        <v>60000552</v>
+      <c r="H2" s="46" t="inlineStr">
+        <is>
+          <t>60001111</t>
+        </is>
       </c>
       <c r="I2" s="46" t="inlineStr">
         <is>
@@ -2877,12 +2736,12 @@
       </c>
       <c r="J2" s="46" t="inlineStr">
         <is>
-          <t>714.29</t>
+          <t>833.33</t>
         </is>
       </c>
       <c r="K2" s="46" t="inlineStr">
         <is>
-          <t>IMTEUR1-2905</t>
+          <t>IMTEUR1-3242</t>
         </is>
       </c>
       <c r="L2" s="46" t="inlineStr">
@@ -2920,7 +2779,7 @@
       </c>
       <c r="S2" s="46" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1611306</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="T2" s="46" t="inlineStr">
@@ -2930,12 +2789,12 @@
       </c>
       <c r="U2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="V2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="W2" s="46" t="inlineStr">
@@ -2944,132 +2803,30 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="89">
-      <c r="C3" s="46" t="inlineStr">
-        <is>
-          <t>CBAEU_04112020150107XXL</t>
-        </is>
-      </c>
-      <c r="D3" s="46" t="inlineStr">
-        <is>
-          <t>CEU_FAC_04112020150959IRK</t>
-        </is>
-      </c>
-      <c r="E3" s="46" t="inlineStr">
-        <is>
-          <t>SE LTD 0815714</t>
-        </is>
-      </c>
-      <c r="F3" s="47" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="G3" s="46" t="inlineStr">
-        <is>
-          <t>Deal/Facility</t>
-        </is>
-      </c>
-      <c r="H3" s="46" t="n">
-        <v>60000743</v>
-      </c>
-      <c r="I3" s="46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" s="46" t="inlineStr">
-        <is>
-          <t>714.29</t>
-        </is>
-      </c>
-      <c r="K3" s="46" t="inlineStr">
-        <is>
-          <t>IMTEUR1-2600</t>
-        </is>
-      </c>
-      <c r="L3" s="46" t="inlineStr">
-        <is>
-          <t>IMT</t>
-        </is>
-      </c>
-      <c r="M3" s="46" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="N3" s="87" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" s="46" t="inlineStr">
-        <is>
-          <t>CG852/Hold for Investment - Europe/BP_CML</t>
-        </is>
-      </c>
-      <c r="P3" s="56" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="Q3" s="46" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="R3" s="56" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="S3" s="46" t="inlineStr">
-        <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
-        </is>
-      </c>
-      <c r="T3" s="46" t="inlineStr">
-        <is>
-          <t>makee.campomanes@abc.com</t>
-        </is>
-      </c>
-      <c r="U3" s="46" t="inlineStr">
-        <is>
-          <t>03-Nov-2020</t>
-        </is>
-      </c>
-      <c r="V3" s="46" t="inlineStr">
-        <is>
-          <t>03-Nov-2020</t>
-        </is>
-      </c>
-      <c r="W3" s="46" t="inlineStr">
-        <is>
-          <t>100,000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="89" t="inlineStr">
+    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="89"/>
+    <row r="21">
+      <c r="B21" s="89" t="inlineStr">
         <is>
           <t>Columns available</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="52" t="inlineStr">
+    <row r="22">
+      <c r="B22" s="52" t="inlineStr">
         <is>
           <t>Manual Input</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="53" t="inlineStr">
+    <row r="23">
+      <c r="B23" s="53" t="inlineStr">
         <is>
           <t>Auto generated</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="54" t="inlineStr">
+    <row r="24">
+      <c r="B24" s="54" t="inlineStr">
         <is>
           <t>Unused Column</t>
         </is>
@@ -3088,10 +2845,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="6" defaultRowHeight="12.75"/>
@@ -3103,8 +2860,8 @@
     <col width="20.85546875" bestFit="1" customWidth="1" style="89" min="5" max="5"/>
     <col width="15.28515625" bestFit="1" customWidth="1" style="89" min="6" max="6"/>
     <col width="6" bestFit="1" customWidth="1" style="89" min="7" max="7"/>
-    <col width="6" customWidth="1" style="31" min="8" max="47"/>
-    <col width="6" customWidth="1" style="31" min="48" max="16384"/>
+    <col width="6" customWidth="1" style="31" min="8" max="54"/>
+    <col width="6" customWidth="1" style="31" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3155,75 +2912,25 @@
           <t>EVGLIQ_AMD_DLCH01 Deal Change Transaction</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>CBAEU_28102020182441XPY</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>01-Jun-2020</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="C2" s="89" t="inlineStr">
+        <is>
+          <t>CBAEU_18112020160654TWL</t>
+        </is>
+      </c>
+      <c r="D2" s="89" t="inlineStr">
+        <is>
+          <t>09-Nov-2020</t>
+        </is>
+      </c>
+      <c r="E2" s="89" t="inlineStr">
         <is>
           <t>ICR</t>
         </is>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="89" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="28" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" customFormat="1" s="1">
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>CBAEU_22102020215905IAE</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>01-Jun-2020</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>ICR</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="28" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="89" t="inlineStr">
-        <is>
-          <t>CBAEU_04112020150107XXL</t>
-        </is>
-      </c>
-      <c r="D4" s="89" t="inlineStr">
-        <is>
-          <t>03-Nov-2020</t>
-        </is>
-      </c>
-      <c r="E4" s="89" t="inlineStr">
-        <is>
-          <t>ICR</t>
-        </is>
-      </c>
-      <c r="F4" s="89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="88" t="inlineStr">
+      <c r="G2" s="88" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
@@ -3498,10 +3205,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3565,8 +3272,8 @@
     <col width="15.85546875" bestFit="1" customWidth="1" style="31" min="61" max="61"/>
     <col width="31.42578125" bestFit="1" customWidth="1" style="31" min="62" max="62"/>
     <col width="9.140625" bestFit="1" customWidth="1" style="31" min="63" max="63"/>
-    <col width="9.140625" customWidth="1" style="31" min="64" max="102"/>
-    <col width="9.140625" customWidth="1" style="31" min="103" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="64" max="109"/>
+    <col width="9.140625" customWidth="1" style="31" min="110" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -3875,7 +3582,7 @@
           <t>Interest_Amount</t>
         </is>
       </c>
-      <c r="BJ1" s="38" t="inlineStr">
+      <c r="BJ1" s="35" t="inlineStr">
         <is>
           <t>Fee_Type</t>
         </is>
@@ -3892,22 +3599,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="39" t="n">
-        <v>1</v>
+      <c r="B2" s="39" t="inlineStr">
+        <is>
+          <t>API_COR_TC01_SENT_Rate Setting Notice</t>
+        </is>
       </c>
       <c r="C2" s="39" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="39" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="E2" s="39" t="inlineStr">
         <is>
-          <t>60000743</t>
+          <t>60001111</t>
         </is>
       </c>
       <c r="F2" s="39" t="n">
@@ -3920,7 +3629,7 @@
       </c>
       <c r="H2" s="39" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="I2" s="39" t="inlineStr">
@@ -3935,22 +3644,22 @@
       </c>
       <c r="K2" s="39" t="inlineStr">
         <is>
-          <t>0GEJ4R8Q</t>
+          <t>E;EJUUL5</t>
         </is>
       </c>
       <c r="L2" s="39" t="inlineStr">
         <is>
-          <t>LIQ-0GEJ4R8Q-0#EJ4PM2-2</t>
+          <t>LIQ-E;EJUUL5-E.EJUT1W-2</t>
         </is>
       </c>
       <c r="M2" s="39" t="inlineStr">
         <is>
-          <t>2023-01-12 00:00:00.000</t>
+          <t>2023-01-18 00:00:00.000</t>
         </is>
       </c>
       <c r="N2" s="39" t="inlineStr">
         <is>
-          <t>2018-08-26 00:00:00.000</t>
+          <t>2018-09-01 00:00:00.000</t>
         </is>
       </c>
       <c r="O2" s="40" t="inlineStr">
@@ -3965,12 +3674,12 @@
       </c>
       <c r="Q2" s="39" t="inlineStr">
         <is>
-          <t>2020-11-04 16:02:14.216</t>
+          <t>2020-11-18 17:14:48.087</t>
         </is>
       </c>
       <c r="R2" s="39" t="inlineStr">
         <is>
-          <t>2020-11-04 16:02:14.216</t>
+          <t>2020-11-18 17:14:48.087</t>
         </is>
       </c>
       <c r="S2" s="40" t="inlineStr">
@@ -4069,12 +3778,12 @@
       </c>
       <c r="AS2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="AT2" s="39" t="inlineStr">
         <is>
-          <t>06-Dec-2021</t>
+          <t>09-Nov-2021</t>
         </is>
       </c>
       <c r="AU2" s="39" t="inlineStr">
@@ -4084,7 +3793,7 @@
       </c>
       <c r="AV2" s="39" t="inlineStr">
         <is>
-          <t>30-Oct-2020</t>
+          <t>05-Nov-2020</t>
         </is>
       </c>
       <c r="AW2" s="39" t="n"/>
@@ -4111,22 +3820,24 @@
       <c r="A3" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="n">
-        <v>2</v>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>API_COR_TC05_SENT_Fee Payment Notice_BILATERAL</t>
+        </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
         <is>
-          <t>60000743</t>
+          <t>60001111</t>
         </is>
       </c>
       <c r="F3" s="39" t="n">
@@ -4139,7 +3850,7 @@
       </c>
       <c r="H3" s="39" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="I3" s="39" t="inlineStr">
@@ -4154,22 +3865,22 @@
       </c>
       <c r="K3" s="39" t="inlineStr">
         <is>
-          <t>MOEISI20</t>
+          <t>T6EJV5MP</t>
         </is>
       </c>
       <c r="L3" s="39" t="inlineStr">
         <is>
-          <t>LIQ-MOEISI20-MTEISH9S-2</t>
+          <t>LIQ-T6EJV5MP-T(EJV4UJ-2</t>
         </is>
       </c>
       <c r="M3" s="39" t="inlineStr">
         <is>
-          <t>2022-10-19 00:00:00.000</t>
+          <t>2023-01-19 00:00:00.000</t>
         </is>
       </c>
       <c r="N3" s="39" t="inlineStr">
         <is>
-          <t>2018-06-02 00:00:00.000</t>
+          <t>2018-09-02 00:00:00.000</t>
         </is>
       </c>
       <c r="O3" s="40" t="inlineStr">
@@ -4184,12 +3895,12 @@
       </c>
       <c r="Q3" s="39" t="inlineStr">
         <is>
-          <t>2020-10-30 13:00:36.991</t>
+          <t>2020-11-18 21:20:11.431</t>
         </is>
       </c>
       <c r="R3" s="39" t="inlineStr">
         <is>
-          <t>2020-10-30 13:00:36.991</t>
+          <t>2020-11-18 21:20:11.431</t>
         </is>
       </c>
       <c r="S3" s="40" t="inlineStr">
@@ -4326,21 +4037,25 @@
       <c r="A4" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="46" t="inlineStr">
-        <is>
-          <t>CBAEU_28102020182441XPY</t>
-        </is>
-      </c>
-      <c r="D4" s="46" t="inlineStr">
-        <is>
-          <t>CEU_FAC_28102020183354WXB</t>
-        </is>
-      </c>
-      <c r="E4" s="46" t="n">
-        <v>60000552</v>
+      <c r="B4" s="39" t="inlineStr">
+        <is>
+          <t>API_COR_TC27_SENT_Interest Payment Notice</t>
+        </is>
+      </c>
+      <c r="C4" s="39" t="inlineStr">
+        <is>
+          <t>CBAEU_18112020160654TWL</t>
+        </is>
+      </c>
+      <c r="D4" s="39" t="inlineStr">
+        <is>
+          <t>CEU_FAC_18112020161637RKP</t>
+        </is>
+      </c>
+      <c r="E4" s="39" t="inlineStr">
+        <is>
+          <t>60001111</t>
+        </is>
       </c>
       <c r="F4" s="39" t="n">
         <v>800</v>
@@ -4352,7 +4067,7 @@
       </c>
       <c r="H4" s="39" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 1611306</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="I4" s="39" t="inlineStr">
@@ -4367,22 +4082,22 @@
       </c>
       <c r="K4" s="39" t="inlineStr">
         <is>
-          <t>T(EJDU2M</t>
+          <t>TDEJV83X</t>
         </is>
       </c>
       <c r="L4" s="39" t="inlineStr">
         <is>
-          <t>LIQ-T(EJDU2M-TJEJDT9H-2</t>
+          <t>LIQ-TDEJV83X-T=EJV7AP-2</t>
         </is>
       </c>
       <c r="M4" s="50" t="inlineStr">
         <is>
-          <t>2023-01-12 00:00:00.000</t>
+          <t>2023-01-19 00:00:00.000</t>
         </is>
       </c>
       <c r="N4" s="50" t="inlineStr">
         <is>
-          <t>2018-08-26 00:00:00.000</t>
+          <t>2018-09-02 00:00:00.000</t>
         </is>
       </c>
       <c r="O4" s="40" t="inlineStr">
@@ -4397,12 +4112,12 @@
       </c>
       <c r="Q4" s="39" t="inlineStr">
         <is>
-          <t>2020-11-09 13:38:52.033</t>
+          <t>2020-11-18 23:31:41.907</t>
         </is>
       </c>
       <c r="R4" s="39" t="inlineStr">
         <is>
-          <t>2020-11-09 13:38:52.033</t>
+          <t>2020-11-18 23:31:41.907</t>
         </is>
       </c>
       <c r="S4" s="40" t="inlineStr">
@@ -4495,7 +4210,7 @@
       </c>
       <c r="AQ4" s="39" t="inlineStr">
         <is>
-          <t>16.000000%</t>
+          <t>15.000000%</t>
         </is>
       </c>
       <c r="AR4" s="39" t="inlineStr">
@@ -4512,12 +4227,12 @@
       <c r="AY4" s="39" t="n"/>
       <c r="AZ4" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>10-Nov-2020</t>
         </is>
       </c>
       <c r="BA4" s="39" t="inlineStr">
         <is>
-          <t>135.89</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="BB4" s="39" t="n"/>
@@ -4543,21 +4258,25 @@
       <c r="A5" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="46" t="inlineStr">
-        <is>
-          <t>CBAEU_28102020182441XPY</t>
-        </is>
-      </c>
-      <c r="D5" s="46" t="inlineStr">
-        <is>
-          <t>CEU_FAC_28102020183354WXB</t>
-        </is>
-      </c>
-      <c r="E5" s="46" t="n">
-        <v>60000552</v>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>API_COR_TC28_SENT_Scheduled Payment Notice</t>
+        </is>
+      </c>
+      <c r="C5" s="39" t="inlineStr">
+        <is>
+          <t>CBAEU_18112020160654TWL</t>
+        </is>
+      </c>
+      <c r="D5" s="39" t="inlineStr">
+        <is>
+          <t>CEU_FAC_18112020161637RKP</t>
+        </is>
+      </c>
+      <c r="E5" s="39" t="inlineStr">
+        <is>
+          <t>60001111</t>
+        </is>
       </c>
       <c r="F5" s="39" t="n">
         <v>800</v>
@@ -4569,7 +4288,7 @@
       </c>
       <c r="H5" s="39" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 0814903</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="I5" s="39" t="inlineStr">
@@ -4584,22 +4303,22 @@
       </c>
       <c r="K5" s="39" t="inlineStr">
         <is>
-          <t>ADEJ6HM7</t>
+          <t>TNEJV9Q7</t>
         </is>
       </c>
       <c r="L5" s="39" t="inlineStr">
         <is>
-          <t>LIQ-ADEJ6HM7-A)EJ6EPO-2</t>
+          <t>LIQ-TNEJV9Q7-TSEJV8XM-2</t>
         </is>
       </c>
       <c r="M5" s="39" t="inlineStr">
         <is>
-          <t>2023-01-12 00:00:00.000</t>
+          <t>2023-01-19 00:00:00.000</t>
         </is>
       </c>
       <c r="N5" s="39" t="inlineStr">
         <is>
-          <t>2018-08-26 00:00:00.000</t>
+          <t>2018-09-02 00:00:00.000</t>
         </is>
       </c>
       <c r="O5" s="40" t="inlineStr">
@@ -4614,12 +4333,12 @@
       </c>
       <c r="Q5" s="39" t="inlineStr">
         <is>
-          <t>2020-11-06 00:23:11.755</t>
+          <t>2020-11-18 22:29:06.901</t>
         </is>
       </c>
       <c r="R5" s="39" t="inlineStr">
         <is>
-          <t>2020-11-06 00:23:11.755</t>
+          <t>2020-11-18 22:29:06.901</t>
         </is>
       </c>
       <c r="S5" s="40" t="inlineStr">
@@ -4727,7 +4446,7 @@
       <c r="AW5" s="39" t="n"/>
       <c r="AX5" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>10-Nov-2020</t>
         </is>
       </c>
       <c r="AY5" s="39" t="n"/>
@@ -4738,7 +4457,7 @@
       <c r="BD5" s="39" t="n"/>
       <c r="BE5" s="39" t="inlineStr">
         <is>
-          <t>714.29</t>
+          <t>833.33</t>
         </is>
       </c>
       <c r="BF5" s="39" t="n"/>
@@ -4753,54 +4472,6 @@
       <c r="BK5" s="39" t="inlineStr">
         <is>
           <t>EUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="39" t="inlineStr">
-        <is>
-          <t>API_COR_TC01_SENT_Rate Setting Notice</t>
-        </is>
-      </c>
-      <c r="C6" s="39" t="inlineStr">
-        <is>
-          <t>CBAEU_04112020150107XXL</t>
-        </is>
-      </c>
-      <c r="D6" s="39" t="inlineStr">
-        <is>
-          <t>CEU_FAC_04112020150959IRK</t>
-        </is>
-      </c>
-      <c r="E6" s="39" t="inlineStr">
-        <is>
-          <t>60000743</t>
-        </is>
-      </c>
-      <c r="H6" s="39" t="inlineStr">
-        <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="39" t="inlineStr">
-        <is>
-          <t>API_COR_TC05_SENT_Fee Payment Notice_BILATERAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="39" t="inlineStr">
-        <is>
-          <t>API_COR_TC27_SENT_Interest Payment Notice</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="39" t="inlineStr">
-        <is>
-          <t>API_COR_TC28_SENT_Scheduled Payment Notice</t>
         </is>
       </c>
     </row>
@@ -4956,8 +4627,8 @@
     <col width="22" customWidth="1" style="89" min="134" max="134"/>
     <col width="35.42578125" customWidth="1" style="89" min="135" max="135"/>
     <col width="28" customWidth="1" style="89" min="136" max="136"/>
-    <col width="9.140625" customWidth="1" style="31" min="137" max="177"/>
-    <col width="9.140625" customWidth="1" style="31" min="178" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="137" max="184"/>
+    <col width="9.140625" customWidth="1" style="31" min="185" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="89">
@@ -5252,7 +4923,7 @@
       </c>
       <c r="M2" s="50" t="inlineStr">
         <is>
-          <t>0815714</t>
+          <t>1513536</t>
         </is>
       </c>
       <c r="N2" s="46" t="inlineStr">
@@ -5267,7 +4938,7 @@
       </c>
       <c r="P2" s="39" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="Q2" s="39" t="inlineStr">
@@ -5479,8 +5150,8 @@
     <col width="22.85546875" customWidth="1" style="26" min="52" max="52"/>
     <col width="22" customWidth="1" style="26" min="53" max="53"/>
     <col width="35.42578125" customWidth="1" style="26" min="54" max="54"/>
-    <col width="9.140625" customWidth="1" style="27" min="55" max="104"/>
-    <col width="9.140625" customWidth="1" style="27" min="105" max="16384"/>
+    <col width="9.140625" customWidth="1" style="27" min="55" max="111"/>
+    <col width="9.140625" customWidth="1" style="27" min="112" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="89">
@@ -5783,7 +5454,7 @@
       </c>
       <c r="F2" s="39" t="inlineStr">
         <is>
-          <t>DDAEUR1-4039</t>
+          <t>DDAEUR1-4738</t>
         </is>
       </c>
       <c r="G2" s="46" t="inlineStr">
@@ -5793,7 +5464,7 @@
       </c>
       <c r="H2" s="46" t="inlineStr">
         <is>
-          <t>IMTEUR1-4039</t>
+          <t>IMTEUR1-4738</t>
         </is>
       </c>
       <c r="I2" s="46" t="inlineStr">
@@ -5803,7 +5474,7 @@
       </c>
       <c r="J2" s="39" t="inlineStr">
         <is>
-          <t>RTGSEUR1-4040</t>
+          <t>RTGSEUR1-4739</t>
         </is>
       </c>
       <c r="K2" s="48" t="inlineStr">
@@ -5938,17 +5609,17 @@
       </c>
       <c r="AK2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 0815714</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="AL2" s="46" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
+          <t>Sanseera Electronics Ltd 1513536</t>
         </is>
       </c>
       <c r="AM2" s="51" t="inlineStr">
         <is>
-          <t>0815714</t>
+          <t>1513536</t>
         </is>
       </c>
       <c r="AN2" s="56" t="inlineStr">
@@ -6132,8 +5803,8 @@
     <col width="25.85546875" customWidth="1" style="89" min="50" max="50"/>
     <col width="31.140625" bestFit="1" customWidth="1" style="89" min="51" max="51"/>
     <col width="6" bestFit="1" customWidth="1" style="31" min="52" max="52"/>
-    <col width="9.140625" customWidth="1" style="31" min="53" max="92"/>
-    <col width="9.140625" customWidth="1" style="31" min="93" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="53" max="99"/>
+    <col width="9.140625" customWidth="1" style="31" min="100" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="45">
@@ -6411,37 +6082,37 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="D2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="E2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="F2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="G2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="H2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="I2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="J2" s="46" t="inlineStr">
@@ -6456,12 +6127,12 @@
       </c>
       <c r="L2" s="39" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="M2" s="39" t="inlineStr">
         <is>
-          <t>CE_04112020150109FNW</t>
+          <t>CE_18112020160658XFT</t>
         </is>
       </c>
       <c r="N2" s="46" t="inlineStr">
@@ -6486,7 +6157,7 @@
       </c>
       <c r="R2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 0815714</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="S2" s="46" t="inlineStr">
@@ -6647,7 +6318,7 @@
       </c>
       <c r="AY2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="AZ2" s="39" t="inlineStr">
@@ -6736,8 +6407,8 @@
     <col width="17.28515625" bestFit="1" customWidth="1" style="89" min="26" max="26"/>
     <col width="24.7109375" customWidth="1" style="89" min="27" max="27"/>
     <col width="6" bestFit="1" customWidth="1" style="31" min="28" max="28"/>
-    <col width="9.140625" customWidth="1" style="31" min="29" max="73"/>
-    <col width="9.140625" customWidth="1" style="31" min="74" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="29" max="80"/>
+    <col width="9.140625" customWidth="1" style="31" min="81" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="45">
@@ -6905,12 +6576,12 @@
       </c>
       <c r="E2" s="39" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="F2" s="39" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="G2" s="46" t="inlineStr">
@@ -6935,22 +6606,22 @@
       </c>
       <c r="K2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="L2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="M2" s="39" t="inlineStr">
         <is>
-          <t>03-Nov-2021</t>
+          <t>09-Nov-2021</t>
         </is>
       </c>
       <c r="N2" s="39" t="inlineStr">
         <is>
-          <t>06-Dec-2021</t>
+          <t>10-Dec-2021</t>
         </is>
       </c>
       <c r="O2" s="46" t="inlineStr">
@@ -7010,7 +6681,7 @@
       </c>
       <c r="Z2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 0815714</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="AA2" s="46" t="inlineStr">
@@ -7091,8 +6762,8 @@
     <col width="20.140625" bestFit="1" customWidth="1" style="89" min="13" max="13"/>
     <col width="23.42578125" bestFit="1" customWidth="1" style="89" min="14" max="14"/>
     <col width="6" bestFit="1" customWidth="1" style="89" min="15" max="15"/>
-    <col width="9.140625" customWidth="1" style="31" min="16" max="62"/>
-    <col width="9.140625" customWidth="1" style="31" min="63" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="16" max="69"/>
+    <col width="9.140625" customWidth="1" style="31" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="64">
@@ -7186,7 +6857,7 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="D2" s="48" t="inlineStr">
@@ -7322,8 +6993,8 @@
     <col width="12.7109375" customWidth="1" style="32" min="21" max="21"/>
     <col width="11" bestFit="1" customWidth="1" style="32" min="22" max="22"/>
     <col width="6" bestFit="1" customWidth="1" style="89" min="23" max="23"/>
-    <col width="9.140625" customWidth="1" style="31" min="24" max="68"/>
-    <col width="9.140625" customWidth="1" style="31" min="69" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="24" max="75"/>
+    <col width="9.140625" customWidth="1" style="31" min="76" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="45">
@@ -7456,7 +7127,7 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr">
@@ -7527,27 +7198,27 @@
       </c>
       <c r="R2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2021</t>
+          <t>09-Nov-2021</t>
         </is>
       </c>
       <c r="S2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="T2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="U2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="V2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="W2" s="56" t="inlineStr">
@@ -7606,8 +7277,8 @@
   </sheetPr>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7642,8 +7313,8 @@
     <col width="22.85546875" customWidth="1" style="34" min="28" max="28"/>
     <col width="23.85546875" bestFit="1" customWidth="1" style="34" min="29" max="29"/>
     <col width="28.7109375" bestFit="1" customWidth="1" style="89" min="30" max="30"/>
-    <col width="9.140625" customWidth="1" style="31" min="31" max="79"/>
-    <col width="9.140625" customWidth="1" style="31" min="80" max="16384"/>
+    <col width="9.140625" customWidth="1" style="31" min="31" max="86"/>
+    <col width="9.140625" customWidth="1" style="31" min="87" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="45">
@@ -7811,12 +7482,12 @@
       </c>
       <c r="C2" s="46" t="inlineStr">
         <is>
-          <t>CBAEU_04112020150107XXL</t>
+          <t>CBAEU_18112020160654TWL</t>
         </is>
       </c>
       <c r="D2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
       <c r="E2" s="46" t="inlineStr">
@@ -7836,7 +7507,7 @@
       </c>
       <c r="H2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 0815714</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="I2" s="40" t="inlineStr">
@@ -7851,7 +7522,7 @@
       </c>
       <c r="K2" s="46" t="inlineStr">
         <is>
-          <t>60000743</t>
+          <t>60001111</t>
         </is>
       </c>
       <c r="L2" s="40" t="inlineStr">
@@ -7861,12 +7532,12 @@
       </c>
       <c r="M2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="N2" s="46" t="inlineStr">
         <is>
-          <t>06-Dec-2021</t>
+          <t>10-Dec-2021</t>
         </is>
       </c>
       <c r="O2" s="40" t="inlineStr">
@@ -7896,7 +7567,7 @@
       </c>
       <c r="T2" s="46" t="inlineStr">
         <is>
-          <t>IMTEUR1-2600</t>
+          <t>IMTEUR1-3242</t>
         </is>
       </c>
       <c r="U2" s="40" t="inlineStr">
@@ -7921,7 +7592,7 @@
       </c>
       <c r="Y2" s="46" t="inlineStr">
         <is>
-          <t>Sanseera Electronics Ltd 0815714</t>
+          <t>Sanseera Electronics Ltd 1510134</t>
         </is>
       </c>
       <c r="Z2" s="56" t="inlineStr">
@@ -7936,17 +7607,17 @@
       </c>
       <c r="AB2" s="46" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>09-Nov-2020</t>
         </is>
       </c>
       <c r="AC2" s="46" t="inlineStr">
         <is>
-          <t>SE LTD 0815714</t>
+          <t>SE LTD 1513536</t>
         </is>
       </c>
       <c r="AD2" s="46" t="inlineStr">
         <is>
-          <t>CEU_FAC_04112020150959IRK</t>
+          <t>CEU_FAC_18112020161637RKP</t>
         </is>
       </c>
     </row>
